--- a/Assignment02/training_features.xlsx
+++ b/Assignment02/training_features.xlsx
@@ -409,2207 +409,2207 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
-        <v>0.848114550113678</v>
+        <v>0.265997052192688</v>
       </c>
       <c r="B2">
-        <v>0.8478092551231384</v>
+        <v>0.2664207816123962</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.2703787386417389</v>
       </c>
       <c r="D2">
-        <v>0.6255509257316589</v>
+        <v>0.04907166585326195</v>
       </c>
       <c r="E2">
-        <v>0.5855801701545715</v>
+        <v>0.01602046191692352</v>
       </c>
       <c r="F2">
-        <v>0.0236453041434288</v>
+        <v>0.3032402098178864</v>
       </c>
       <c r="G2">
-        <v>0.1530612260103226</v>
+        <v>0.6020408272743225</v>
       </c>
       <c r="H2">
-        <v>0.08720570802688599</v>
+        <v>0.09703639894723892</v>
       </c>
       <c r="I2">
-        <v>0.0209728516638279</v>
+        <v>0.09832943975925446</v>
       </c>
       <c r="J2">
-        <v>0.4013386368751526</v>
+        <v>0.06099647656083107</v>
       </c>
       <c r="K2">
-        <v>0.7424524426460266</v>
+        <v>0.08591236174106598</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>0.5806613564491272</v>
+        <v>0.2322933673858643</v>
       </c>
       <c r="B3">
-        <v>0.5805076956748962</v>
+        <v>0.2322808653116226</v>
       </c>
       <c r="C3">
-        <v>0.6262526512145996</v>
+        <v>0.2444241642951965</v>
       </c>
       <c r="D3">
-        <v>0.2522352635860443</v>
+        <v>0.02256202325224876</v>
       </c>
       <c r="E3">
-        <v>0.2244109362363815</v>
+        <v>0.01844427920877934</v>
       </c>
       <c r="F3">
-        <v>0.03626010939478874</v>
+        <v>0.6787086725234985</v>
       </c>
       <c r="G3">
-        <v>0.1428571492433548</v>
+        <v>0.438775509595871</v>
       </c>
       <c r="H3">
-        <v>0.0546075850725174</v>
+        <v>0.03156933188438416</v>
       </c>
       <c r="I3">
-        <v>0.01004542410373688</v>
+        <v>0.03127016872167587</v>
       </c>
       <c r="J3">
-        <v>0.2717669606208801</v>
+        <v>0.02388689480721951</v>
       </c>
       <c r="K3">
-        <v>0.358063280582428</v>
+        <v>0.06828164309263229</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>0.5806613564491272</v>
+        <v>0.1424884349107742</v>
       </c>
       <c r="B4">
-        <v>0.5805076956748962</v>
+        <v>0.1440053880214691</v>
       </c>
       <c r="C4">
-        <v>0.6262526512145996</v>
+        <v>0.219785064458847</v>
       </c>
       <c r="D4">
-        <v>0.2522352635860443</v>
+        <v>0.4433603584766388</v>
       </c>
       <c r="E4">
-        <v>0.2244109362363815</v>
+        <v>0.1661642789840698</v>
       </c>
       <c r="F4">
-        <v>0.03626010939478874</v>
+        <v>0.05894718319177628</v>
       </c>
       <c r="G4">
-        <v>0.1428571492433548</v>
+        <v>0.2346938848495483</v>
       </c>
       <c r="H4">
-        <v>0.0546075850725174</v>
+        <v>0.2076872438192368</v>
       </c>
       <c r="I4">
-        <v>0.01004542410373688</v>
+        <v>0.1735452115535736</v>
       </c>
       <c r="J4">
-        <v>0.2717669606208801</v>
+        <v>0.3891560137271881</v>
       </c>
       <c r="K4">
-        <v>0.358063280582428</v>
+        <v>0.03085592947900295</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>0.848114550113678</v>
+        <v>0.3578577041625977</v>
       </c>
       <c r="B5">
-        <v>0.8478092551231384</v>
+        <v>0.3574323356151581</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.5233719944953918</v>
       </c>
       <c r="D5">
-        <v>0.6255509257316589</v>
+        <v>0.2866928279399872</v>
       </c>
       <c r="E5">
-        <v>0.5855801701545715</v>
+        <v>0.1791094392538071</v>
       </c>
       <c r="F5">
-        <v>0.0236453041434288</v>
+        <v>0.1575717329978943</v>
       </c>
       <c r="G5">
-        <v>0.1530612260103226</v>
+        <v>0.1428571492433548</v>
       </c>
       <c r="H5">
-        <v>0.08720570802688599</v>
+        <v>0.075926773250103</v>
       </c>
       <c r="I5">
-        <v>0.0209728516638279</v>
+        <v>0.03192541748285294</v>
       </c>
       <c r="J5">
-        <v>0.4013386368751526</v>
+        <v>0.304124653339386</v>
       </c>
       <c r="K5">
-        <v>0.7424524426460266</v>
+        <v>0.1544183343648911</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>0.3721108138561249</v>
+        <v>0.2168306112289429</v>
       </c>
       <c r="B6">
-        <v>0.3721077740192413</v>
+        <v>0.2168048620223999</v>
       </c>
       <c r="C6">
-        <v>0.5629991292953491</v>
+        <v>0.4424697756767273</v>
       </c>
       <c r="D6">
-        <v>0.3712053596973419</v>
+        <v>0.4909988343715668</v>
       </c>
       <c r="E6">
-        <v>0.2977196276187897</v>
+        <v>0.4668628871440887</v>
       </c>
       <c r="F6">
-        <v>0.09492827951908112</v>
+        <v>0.0433938279747963</v>
       </c>
       <c r="G6">
-        <v>0.06122449040412903</v>
+        <v>0.08163265138864517</v>
       </c>
       <c r="H6">
-        <v>0.05325686559081078</v>
+        <v>0.06365148723125458</v>
       </c>
       <c r="I6">
-        <v>0.01817338913679123</v>
+        <v>0.05276256427168846</v>
       </c>
       <c r="J6">
-        <v>0.2469984591007233</v>
+        <v>0.09591997414827347</v>
       </c>
       <c r="K6">
-        <v>0.167956605553627</v>
+        <v>0.06401506066322327</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>0.4921113550662994</v>
+        <v>0.7114942073822021</v>
       </c>
       <c r="B7">
-        <v>0.492306113243103</v>
+        <v>0.7121694087982178</v>
       </c>
       <c r="C7">
-        <v>0.6708927154541016</v>
+        <v>0.7575140595436096</v>
       </c>
       <c r="D7">
-        <v>0.583873987197876</v>
+        <v>0.2673247158527374</v>
       </c>
       <c r="E7">
-        <v>0.5221615433692932</v>
+        <v>0.1296836733818054</v>
       </c>
       <c r="F7">
-        <v>0.02579779922962189</v>
+        <v>0.3800450563430786</v>
       </c>
       <c r="G7">
-        <v>0.01020408142358065</v>
+        <v>0.2346938848495483</v>
       </c>
       <c r="H7">
-        <v>0.02171150036156178</v>
+        <v>0.1651112884283066</v>
       </c>
       <c r="I7">
-        <v>0.006535549648106098</v>
+        <v>0.1290090531110764</v>
       </c>
       <c r="J7">
-        <v>0.1141749024391174</v>
+        <v>0.2981155216693878</v>
       </c>
       <c r="K7">
-        <v>0.2666105926036835</v>
+        <v>0.5198567509651184</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>0.848114550113678</v>
+        <v>0.2248936891555786</v>
       </c>
       <c r="B8">
-        <v>0.8478092551231384</v>
+        <v>0.2249263375997543</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.2219251990318298</v>
       </c>
       <c r="D8">
-        <v>0.6255509257316589</v>
+        <v>0.023171316832304</v>
       </c>
       <c r="E8">
-        <v>0.5855801701545715</v>
+        <v>0.01071937382221222</v>
       </c>
       <c r="F8">
-        <v>0.0236453041434288</v>
+        <v>0.4338569939136505</v>
       </c>
       <c r="G8">
-        <v>0.1530612260103226</v>
+        <v>0.1836734712123871</v>
       </c>
       <c r="H8">
-        <v>0.08720570802688599</v>
+        <v>0.03250914067029953</v>
       </c>
       <c r="I8">
-        <v>0.0209728516638279</v>
+        <v>0.03341451287269592</v>
       </c>
       <c r="J8">
-        <v>0.4013386368751526</v>
+        <v>0.03160965070128441</v>
       </c>
       <c r="K8">
-        <v>0.7424524426460266</v>
+        <v>0.06520375609397888</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>0.4060307741165161</v>
+        <v>0.2449971735477448</v>
       </c>
       <c r="B9">
-        <v>0.4054626822471619</v>
+        <v>0.2437801510095596</v>
       </c>
       <c r="C9">
-        <v>0.6310588717460632</v>
+        <v>0.3644242584705353</v>
       </c>
       <c r="D9">
-        <v>0.3034385740756989</v>
+        <v>0.3957767188549042</v>
       </c>
       <c r="E9">
-        <v>0.120798721909523</v>
+        <v>0.1779844909906387</v>
       </c>
       <c r="F9">
-        <v>0.2659529149532318</v>
+        <v>0.1891504973173141</v>
       </c>
       <c r="G9">
-        <v>0.1530612260103226</v>
+        <v>0.3163265287876129</v>
       </c>
       <c r="H9">
-        <v>0.08450846374034882</v>
+        <v>0.1943171769380569</v>
       </c>
       <c r="I9">
-        <v>0.01771355234086514</v>
+        <v>0.09267959743738174</v>
       </c>
       <c r="J9">
-        <v>0.3959545791149139</v>
+        <v>0.5872356295585632</v>
       </c>
       <c r="K9">
-        <v>0.1817143857479095</v>
+        <v>0.08177170157432556</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>0.4060307741165161</v>
+        <v>0.7648317813873291</v>
       </c>
       <c r="B10">
-        <v>0.4054626822471619</v>
+        <v>0.7648212313652039</v>
       </c>
       <c r="C10">
-        <v>0.6310588717460632</v>
+        <v>0.8211612105369568</v>
       </c>
       <c r="D10">
-        <v>0.3034385740756989</v>
+        <v>0.3402568399906158</v>
       </c>
       <c r="E10">
-        <v>0.120798721909523</v>
+        <v>0.2459686696529388</v>
       </c>
       <c r="F10">
-        <v>0.2659529149532318</v>
+        <v>0.03947950154542923</v>
       </c>
       <c r="G10">
-        <v>0.1530612260103226</v>
+        <v>0.3163265287876129</v>
       </c>
       <c r="H10">
-        <v>0.08450846374034882</v>
+        <v>0.2245792299509048</v>
       </c>
       <c r="I10">
-        <v>0.01771355234086514</v>
+        <v>0.09380093216896057</v>
       </c>
       <c r="J10">
-        <v>0.3959545791149139</v>
+        <v>0.6060838103294373</v>
       </c>
       <c r="K10">
-        <v>0.1817143857479095</v>
+        <v>0.6022499203681946</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>0.3374450206756592</v>
+        <v>0.1923685967922211</v>
       </c>
       <c r="B11">
-        <v>0.3374496400356293</v>
+        <v>0.1925529986619949</v>
       </c>
       <c r="C11">
-        <v>0.6832351088523865</v>
+        <v>0.2291077375411987</v>
       </c>
       <c r="D11">
-        <v>0.8399906158447266</v>
+        <v>0.1426503509283066</v>
       </c>
       <c r="E11">
-        <v>0.7987667918205261</v>
+        <v>0.1267788112163544</v>
       </c>
       <c r="F11">
-        <v>0.03442693874239922</v>
+        <v>0.04171929135918617</v>
       </c>
       <c r="G11">
-        <v>0.08163265138864517</v>
+        <v>0.1326530575752258</v>
       </c>
       <c r="H11">
-        <v>0.06122159585356712</v>
+        <v>0.0431523472070694</v>
       </c>
       <c r="I11">
-        <v>0.02787233330309391</v>
+        <v>0.03454918041825294</v>
       </c>
       <c r="J11">
-        <v>0.2573001682758331</v>
+        <v>0.09087430685758591</v>
       </c>
       <c r="K11">
-        <v>0.1442585736513138</v>
+        <v>0.05440812185406685</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>0.3374450206756592</v>
+        <v>0.4434278607368469</v>
       </c>
       <c r="B12">
-        <v>0.3374496400356293</v>
+        <v>0.4434502124786377</v>
       </c>
       <c r="C12">
-        <v>0.6832351088523865</v>
+        <v>0.401686429977417</v>
       </c>
       <c r="D12">
-        <v>0.8399906158447266</v>
+        <v>0.04263534024357796</v>
       </c>
       <c r="E12">
-        <v>0.7987667918205261</v>
+        <v>0.04189439117908478</v>
       </c>
       <c r="F12">
-        <v>0.03442693874239922</v>
+        <v>0.03429263085126877</v>
       </c>
       <c r="G12">
-        <v>0.08163265138864517</v>
+        <v>0.3469387888908386</v>
       </c>
       <c r="H12">
-        <v>0.06122159585356712</v>
+        <v>0.08746965974569321</v>
       </c>
       <c r="I12">
-        <v>0.02787233330309391</v>
+        <v>0.08696383237838745</v>
       </c>
       <c r="J12">
-        <v>0.2573001682758331</v>
+        <v>0.07203858345746994</v>
       </c>
       <c r="K12">
-        <v>0.1442585736513138</v>
+        <v>0.2174297869205475</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>0.3721108138561249</v>
+        <v>0.5348194241523743</v>
       </c>
       <c r="B13">
-        <v>0.3721077740192413</v>
+        <v>0.5336012840270996</v>
       </c>
       <c r="C13">
-        <v>0.5629991292953491</v>
+        <v>0.8865073919296265</v>
       </c>
       <c r="D13">
-        <v>0.3712053596973419</v>
+        <v>0.4501300752162933</v>
       </c>
       <c r="E13">
-        <v>0.2977196276187897</v>
+        <v>0.3039118051528931</v>
       </c>
       <c r="F13">
-        <v>0.09492827951908112</v>
+        <v>0.2167990803718567</v>
       </c>
       <c r="G13">
-        <v>0.06122449040412903</v>
+        <v>0.2244897931814194</v>
       </c>
       <c r="H13">
-        <v>0.05325686559081078</v>
+        <v>0.1754200160503387</v>
       </c>
       <c r="I13">
-        <v>0.01817338913679123</v>
+        <v>0.06101612001657486</v>
       </c>
       <c r="J13">
-        <v>0.2469984591007233</v>
+        <v>0.6442585587501526</v>
       </c>
       <c r="K13">
-        <v>0.167956605553627</v>
+        <v>0.3201721608638763</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>0.16610087454319</v>
+        <v>0.5583692789077759</v>
       </c>
       <c r="B14">
-        <v>0.1660010367631912</v>
+        <v>0.5587169528007507</v>
       </c>
       <c r="C14">
-        <v>0.1977350115776062</v>
+        <v>0.5651001334190369</v>
       </c>
       <c r="D14">
-        <v>0.0871141105890274</v>
+        <v>0.246361643075943</v>
       </c>
       <c r="E14">
-        <v>0.01689436472952366</v>
+        <v>0.2488692253828049</v>
       </c>
       <c r="F14">
-        <v>0.1676542013883591</v>
+        <v>0.01648833230137825</v>
       </c>
       <c r="G14">
-        <v>0.1020408198237419</v>
+        <v>0.1428571492433548</v>
       </c>
       <c r="H14">
-        <v>0.05506835132837296</v>
+        <v>0.06389209628105164</v>
       </c>
       <c r="I14">
-        <v>0.03888082504272461</v>
+        <v>0.06361250579357147</v>
       </c>
       <c r="J14">
-        <v>0.08670005202293396</v>
+        <v>0.0486992821097374</v>
       </c>
       <c r="K14">
-        <v>0.03999016433954239</v>
+        <v>0.3303371369838715</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>0.5806613564491272</v>
+        <v>0.2621994912624359</v>
       </c>
       <c r="B15">
-        <v>0.5805076956748962</v>
+        <v>0.2621416449546814</v>
       </c>
       <c r="C15">
-        <v>0.6262526512145996</v>
+        <v>0.2343983501195908</v>
       </c>
       <c r="D15">
-        <v>0.2522352635860443</v>
+        <v>0.02141252160072327</v>
       </c>
       <c r="E15">
-        <v>0.2244109362363815</v>
+        <v>0.02439837157726288</v>
       </c>
       <c r="F15">
-        <v>0.03626010939478874</v>
+        <v>0.02152344956994057</v>
       </c>
       <c r="G15">
-        <v>0.1428571492433548</v>
+        <v>0.0714285746216774</v>
       </c>
       <c r="H15">
-        <v>0.0546075850725174</v>
+        <v>0.00636778911575675</v>
       </c>
       <c r="I15">
-        <v>0.01004542410373688</v>
+        <v>0.007752777077257633</v>
       </c>
       <c r="J15">
-        <v>0.2717669606208801</v>
+        <v>0.003673508064821362</v>
       </c>
       <c r="K15">
-        <v>0.358063280582428</v>
+        <v>0.08511108905076981</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>0.1313200443983078</v>
+        <v>0.2215272039175034</v>
       </c>
       <c r="B16">
-        <v>0.1315848827362061</v>
+        <v>0.2213968485593796</v>
       </c>
       <c r="C16">
-        <v>0.2217546105384827</v>
+        <v>0.2320956289768219</v>
       </c>
       <c r="D16">
-        <v>0.1704262793064117</v>
+        <v>0.04183823242783546</v>
       </c>
       <c r="E16">
-        <v>0.1140994802117348</v>
+        <v>0.04028112068772316</v>
       </c>
       <c r="F16">
-        <v>0.0697791799902916</v>
+        <v>0.1946356594562531</v>
       </c>
       <c r="G16">
-        <v>0.2346938848495483</v>
+        <v>0.1224489808082581</v>
       </c>
       <c r="H16">
-        <v>0.1027986854314804</v>
+        <v>0.01308336853981018</v>
       </c>
       <c r="I16">
-        <v>0.06942707300186157</v>
+        <v>0.01168638467788696</v>
       </c>
       <c r="J16">
-        <v>0.1911830306053162</v>
+        <v>0.02883914858102798</v>
       </c>
       <c r="K16">
-        <v>0.02729088813066483</v>
+        <v>0.06289070844650269</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>0.5806613564491272</v>
+        <v>0.2738403379917145</v>
       </c>
       <c r="B17">
-        <v>0.5805076956748962</v>
+        <v>0.274124413728714</v>
       </c>
       <c r="C17">
-        <v>0.6262526512145996</v>
+        <v>0.3222697377204895</v>
       </c>
       <c r="D17">
-        <v>0.2522352635860443</v>
+        <v>0.2640984356403351</v>
       </c>
       <c r="E17">
-        <v>0.2244109362363815</v>
+        <v>0.304954469203949</v>
       </c>
       <c r="F17">
-        <v>0.03626010939478874</v>
+        <v>0.01118034496903419</v>
       </c>
       <c r="G17">
-        <v>0.1428571492433548</v>
+        <v>0.05102040991187096</v>
       </c>
       <c r="H17">
-        <v>0.0546075850725174</v>
+        <v>0.02053528837859631</v>
       </c>
       <c r="I17">
-        <v>0.01004542410373688</v>
+        <v>0.01382878609001637</v>
       </c>
       <c r="J17">
-        <v>0.2717669606208801</v>
+        <v>0.04667375981807709</v>
       </c>
       <c r="K17">
-        <v>0.358063280582428</v>
+        <v>0.09939843416213989</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>0.8208404183387756</v>
+        <v>0.2899038195610046</v>
       </c>
       <c r="B18">
-        <v>0.8212341070175171</v>
+        <v>0.2900513112545013</v>
       </c>
       <c r="C18">
-        <v>0.7552822232246399</v>
+        <v>0.3344473242759705</v>
       </c>
       <c r="D18">
-        <v>0.04311391711235046</v>
+        <v>0.1284408867359161</v>
       </c>
       <c r="E18">
-        <v>0.03450678661465645</v>
+        <v>0.09466728568077087</v>
       </c>
       <c r="F18">
-        <v>0.04846277832984924</v>
+        <v>0.1151815950870514</v>
       </c>
       <c r="G18">
-        <v>0.5918367505073547</v>
+        <v>0.3979591727256775</v>
       </c>
       <c r="H18">
-        <v>0.2317642569541931</v>
+        <v>0.07425533980131149</v>
       </c>
       <c r="I18">
-        <v>0.2399519830942154</v>
+        <v>0.07444541901350021</v>
       </c>
       <c r="J18">
-        <v>0.1306406408548355</v>
+        <v>0.07243427634239197</v>
       </c>
       <c r="K18">
-        <v>0.6843286156654358</v>
+        <v>0.1030970737338066</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>0.4060307741165161</v>
+        <v>0.3011469841003418</v>
       </c>
       <c r="B19">
-        <v>0.4054626822471619</v>
+        <v>0.301095187664032</v>
       </c>
       <c r="C19">
-        <v>0.6310588717460632</v>
+        <v>0.2689360678195953</v>
       </c>
       <c r="D19">
-        <v>0.3034385740756989</v>
+        <v>0.02751101739704609</v>
       </c>
       <c r="E19">
-        <v>0.120798721909523</v>
+        <v>0.03630965948104858</v>
       </c>
       <c r="F19">
-        <v>0.2659529149532318</v>
+        <v>0.009625409729778767</v>
       </c>
       <c r="G19">
-        <v>0.1530612260103226</v>
+        <v>0.09183673560619354</v>
       </c>
       <c r="H19">
-        <v>0.08450846374034882</v>
+        <v>0.009364744648337364</v>
       </c>
       <c r="I19">
-        <v>0.01771355234086514</v>
+        <v>0.01001065876334906</v>
       </c>
       <c r="J19">
-        <v>0.3959545791149139</v>
+        <v>0.01022972259670496</v>
       </c>
       <c r="K19">
-        <v>0.1817143857479095</v>
+        <v>0.1074412986636162</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>0.8448196649551392</v>
+        <v>0.1670136749744415</v>
       </c>
       <c r="B20">
-        <v>0.8444271683692932</v>
+        <v>0.1667556166648865</v>
       </c>
       <c r="C20">
-        <v>0.766271710395813</v>
+        <v>0.2353508472442627</v>
       </c>
       <c r="D20">
-        <v>0.043267872184515</v>
+        <v>0.3006471395492554</v>
       </c>
       <c r="E20">
-        <v>0.03450678661465645</v>
+        <v>0.2847500443458557</v>
       </c>
       <c r="F20">
-        <v>0.02354026585817337</v>
+        <v>0.01923273876309395</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0.2857142984867096</v>
       </c>
       <c r="H20">
-        <v>0.2863408923149109</v>
+        <v>0.09606355428695679</v>
       </c>
       <c r="I20">
-        <v>0.2909579575061798</v>
+        <v>0.0339546799659729</v>
       </c>
       <c r="J20">
-        <v>0.2459008097648621</v>
+        <v>0.3298622667789459</v>
       </c>
       <c r="K20">
-        <v>0.722498893737793</v>
+        <v>0.0417640432715416</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>0.8208404183387756</v>
+        <v>0.3787654638290405</v>
       </c>
       <c r="B21">
-        <v>0.8212341070175171</v>
+        <v>0.3786492943763733</v>
       </c>
       <c r="C21">
-        <v>0.7552822232246399</v>
+        <v>0.3780478537082672</v>
       </c>
       <c r="D21">
-        <v>0.04311391711235046</v>
+        <v>0.1002975255250931</v>
       </c>
       <c r="E21">
-        <v>0.03450678661465645</v>
+        <v>0.06852513551712036</v>
       </c>
       <c r="F21">
-        <v>0.04846277832984924</v>
+        <v>0.04404962807893753</v>
       </c>
       <c r="G21">
-        <v>0.5918367505073547</v>
+        <v>0.3775510191917419</v>
       </c>
       <c r="H21">
-        <v>0.2317642569541931</v>
+        <v>0.0810825452208519</v>
       </c>
       <c r="I21">
-        <v>0.2399519830942154</v>
+        <v>0.07823110371828079</v>
       </c>
       <c r="J21">
-        <v>0.1306406408548355</v>
+        <v>0.1135774403810501</v>
       </c>
       <c r="K21">
-        <v>0.6843286156654358</v>
+        <v>0.1644790321588516</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <v>0.7985613942146301</v>
+        <v>0.155958279967308</v>
       </c>
       <c r="B22">
-        <v>0.7990687489509583</v>
+        <v>0.1560407280921936</v>
       </c>
       <c r="C22">
-        <v>0.7333075404167175</v>
+        <v>0.2001183032989502</v>
       </c>
       <c r="D22">
-        <v>0.1173548549413681</v>
+        <v>0.1122158542275429</v>
       </c>
       <c r="E22">
-        <v>0.1481752395629883</v>
+        <v>0.04182230308651924</v>
       </c>
       <c r="F22">
-        <v>0.005743794143199921</v>
+        <v>0.09723092615604401</v>
       </c>
       <c r="G22">
-        <v>0.6020408272743225</v>
+        <v>0.2142857164144516</v>
       </c>
       <c r="H22">
-        <v>0.2294658124446869</v>
+        <v>0.05596110969781876</v>
       </c>
       <c r="I22">
-        <v>0.2320535629987717</v>
+        <v>0.04798967391252518</v>
       </c>
       <c r="J22">
-        <v>0.1574250608682632</v>
+        <v>0.08942318707704544</v>
       </c>
       <c r="K22">
-        <v>0.6530696749687195</v>
+        <v>0.03441423922777176</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <v>0.8304648399353027</v>
+        <v>0.2724028825759888</v>
       </c>
       <c r="B23">
-        <v>0.8306031823158264</v>
+        <v>0.2702684998512268</v>
       </c>
       <c r="C23">
-        <v>0.749789297580719</v>
+        <v>0.3371624052524567</v>
       </c>
       <c r="D23">
-        <v>0.03337016701698303</v>
+        <v>0.06130347028374672</v>
       </c>
       <c r="E23">
-        <v>0.01555816922336817</v>
+        <v>0.008515623398125172</v>
       </c>
       <c r="F23">
-        <v>0.04419258236885071</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.2959183752536774</v>
+        <v>0.2653061151504517</v>
       </c>
       <c r="H23">
-        <v>0.1973109841346741</v>
+        <v>0.07999017834663391</v>
       </c>
       <c r="I23">
-        <v>0.2097017914056778</v>
+        <v>0.06203137338161469</v>
       </c>
       <c r="J23">
-        <v>0.09165877103805542</v>
+        <v>0.0541134774684906</v>
       </c>
       <c r="K23">
-        <v>0.6982158422470093</v>
+        <v>0.09066999703645706</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <v>0.3721108138561249</v>
+        <v>0.2620957493782043</v>
       </c>
       <c r="B24">
-        <v>0.3721077740192413</v>
+        <v>0.2623868882656097</v>
       </c>
       <c r="C24">
-        <v>0.5629991292953491</v>
+        <v>0.2303151041269302</v>
       </c>
       <c r="D24">
-        <v>0.3712053596973419</v>
+        <v>0.02456659451127052</v>
       </c>
       <c r="E24">
-        <v>0.2977196276187897</v>
+        <v>0.01341448444873095</v>
       </c>
       <c r="F24">
-        <v>0.09492827951908112</v>
+        <v>0.1304064691066742</v>
       </c>
       <c r="G24">
-        <v>0.06122449040412903</v>
+        <v>0.5612244606018066</v>
       </c>
       <c r="H24">
-        <v>0.05325686559081078</v>
+        <v>0.09794012457132339</v>
       </c>
       <c r="I24">
-        <v>0.01817338913679123</v>
+        <v>0.09816115349531174</v>
       </c>
       <c r="J24">
-        <v>0.2469984591007233</v>
+        <v>0.07288658618927002</v>
       </c>
       <c r="K24">
-        <v>0.167956605553627</v>
+        <v>0.08563187718391418</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <v>0.848114550113678</v>
+        <v>0.5273607969284058</v>
       </c>
       <c r="B25">
-        <v>0.8478092551231384</v>
+        <v>0.5273224115371704</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0.4672342240810394</v>
       </c>
       <c r="D25">
-        <v>0.6255509257316589</v>
+        <v>0.01230898220092058</v>
       </c>
       <c r="E25">
-        <v>0.5855801701545715</v>
+        <v>0.01162113808095455</v>
       </c>
       <c r="F25">
-        <v>0.0236453041434288</v>
+        <v>0.02708979323506355</v>
       </c>
       <c r="G25">
-        <v>0.1530612260103226</v>
+        <v>0.3673469424247742</v>
       </c>
       <c r="H25">
-        <v>0.08720570802688599</v>
+        <v>0.03450275212526321</v>
       </c>
       <c r="I25">
-        <v>0.0209728516638279</v>
+        <v>0.03711539879441261</v>
       </c>
       <c r="J25">
-        <v>0.4013386368751526</v>
+        <v>0.02656588703393936</v>
       </c>
       <c r="K25">
-        <v>0.7424524426460266</v>
+        <v>0.2983217537403107</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <v>0.4060307741165161</v>
+        <v>0.3347604870796204</v>
       </c>
       <c r="B26">
-        <v>0.4054626822471619</v>
+        <v>0.3342972695827484</v>
       </c>
       <c r="C26">
-        <v>0.6310588717460632</v>
+        <v>0.3058328330516815</v>
       </c>
       <c r="D26">
-        <v>0.3034385740756989</v>
+        <v>0.08822258561849594</v>
       </c>
       <c r="E26">
-        <v>0.120798721909523</v>
+        <v>0.03861193358898163</v>
       </c>
       <c r="F26">
-        <v>0.2659529149532318</v>
+        <v>0.6351519227027893</v>
       </c>
       <c r="G26">
-        <v>0.1530612260103226</v>
+        <v>0.6020408272743225</v>
       </c>
       <c r="H26">
-        <v>0.08450846374034882</v>
+        <v>0.1022245362401009</v>
       </c>
       <c r="I26">
-        <v>0.01771355234086514</v>
+        <v>0.1042887195944786</v>
       </c>
       <c r="J26">
-        <v>0.3959545791149139</v>
+        <v>0.1009241119027138</v>
       </c>
       <c r="K26">
-        <v>0.1817143857479095</v>
+        <v>0.1306324005126953</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <v>0.7244436740875244</v>
+        <v>0.7724531888961792</v>
       </c>
       <c r="B27">
-        <v>0.7244302034378052</v>
+        <v>0.7732501626014709</v>
       </c>
       <c r="C27">
-        <v>0.6509077548980713</v>
+        <v>0.7058380842208862</v>
       </c>
       <c r="D27">
-        <v>0.0487808883190155</v>
+        <v>0.07180643826723099</v>
       </c>
       <c r="E27">
-        <v>0.03450678661465645</v>
+        <v>0.09135580807924271</v>
       </c>
       <c r="F27">
-        <v>0.04633117839694023</v>
+        <v>0.01820473186671734</v>
       </c>
       <c r="G27">
-        <v>0.5612244606018066</v>
+        <v>0.6428571343421936</v>
       </c>
       <c r="H27">
-        <v>0.2248805314302444</v>
+        <v>0.2460613399744034</v>
       </c>
       <c r="I27">
-        <v>0.2328717410564423</v>
+        <v>0.2410954982042313</v>
       </c>
       <c r="J27">
-        <v>0.1403956711292267</v>
+        <v>0.1841486990451813</v>
       </c>
       <c r="K27">
-        <v>0.5403000712394714</v>
+        <v>0.6054456233978271</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <v>0.8208404183387756</v>
+        <v>0.4832682311534882</v>
       </c>
       <c r="B28">
-        <v>0.8212341070175171</v>
+        <v>0.4824923574924469</v>
       </c>
       <c r="C28">
-        <v>0.7552822232246399</v>
+        <v>0.6242474913597107</v>
       </c>
       <c r="D28">
-        <v>0.04311391711235046</v>
+        <v>0.3194621503353119</v>
       </c>
       <c r="E28">
-        <v>0.03450678661465645</v>
+        <v>0.2461037933826447</v>
       </c>
       <c r="F28">
-        <v>0.04846277832984924</v>
+        <v>0.08090141415596008</v>
       </c>
       <c r="G28">
-        <v>0.5918367505073547</v>
+        <v>0.2653061151504517</v>
       </c>
       <c r="H28">
-        <v>0.2317642569541931</v>
+        <v>0.1102290749549866</v>
       </c>
       <c r="I28">
-        <v>0.2399519830942154</v>
+        <v>0.0307475533336401</v>
       </c>
       <c r="J28">
-        <v>0.1306406408548355</v>
+        <v>0.4489047229290009</v>
       </c>
       <c r="K28">
-        <v>0.6843286156654358</v>
+        <v>0.2711522877216339</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29">
-        <v>0.7244436740875244</v>
+        <v>0.3192408978939056</v>
       </c>
       <c r="B29">
-        <v>0.7244302034378052</v>
+        <v>0.3197530806064606</v>
       </c>
       <c r="C29">
-        <v>0.6509077548980713</v>
+        <v>0.6480797529220581</v>
       </c>
       <c r="D29">
-        <v>0.0487808883190155</v>
+        <v>0.6006564497947693</v>
       </c>
       <c r="E29">
-        <v>0.03450678661465645</v>
+        <v>0.5099613666534424</v>
       </c>
       <c r="F29">
-        <v>0.04633117839694023</v>
+        <v>0.07144267857074738</v>
       </c>
       <c r="G29">
-        <v>0.5612244606018066</v>
+        <v>0.1224489808082581</v>
       </c>
       <c r="H29">
-        <v>0.2248805314302444</v>
+        <v>0.1011974439024925</v>
       </c>
       <c r="I29">
-        <v>0.2328717410564423</v>
+        <v>0.06557603180408478</v>
       </c>
       <c r="J29">
-        <v>0.1403956711292267</v>
+        <v>0.2315973937511444</v>
       </c>
       <c r="K29">
-        <v>0.5403000712394714</v>
+        <v>0.1212047338485718</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
-        <v>0.7354972362518311</v>
+        <v>0.06404963135719299</v>
       </c>
       <c r="B30">
-        <v>0.7348169684410095</v>
+        <v>0.06414004415273666</v>
       </c>
       <c r="C30">
-        <v>0.6618941426277161</v>
+        <v>0.09859243035316467</v>
       </c>
       <c r="D30">
-        <v>0.04242788255214691</v>
+        <v>0.1002244651317596</v>
       </c>
       <c r="E30">
-        <v>0.03450889885425568</v>
+        <v>0.09328571707010269</v>
       </c>
       <c r="F30">
-        <v>0.02210498787462711</v>
+        <v>0.04643456637859344</v>
       </c>
       <c r="G30">
-        <v>0.1632653027772903</v>
+        <v>0.04081632569432259</v>
       </c>
       <c r="H30">
-        <v>0.1844462007284164</v>
+        <v>0.003168581053614616</v>
       </c>
       <c r="I30">
-        <v>0.1913727223873138</v>
+        <v>0.002477607224136591</v>
       </c>
       <c r="J30">
-        <v>0.05119110271334648</v>
+        <v>0.01682097464799881</v>
       </c>
       <c r="K30">
-        <v>0.555275022983551</v>
+        <v>0.009553209878504276</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31">
-        <v>0.1058340519666672</v>
+        <v>0.2654378116130829</v>
       </c>
       <c r="B31">
-        <v>0.1059128567576408</v>
+        <v>0.2654388248920441</v>
       </c>
       <c r="C31">
-        <v>0.1847037822008133</v>
+        <v>0.2290873527526855</v>
       </c>
       <c r="D31">
-        <v>0.3070013225078583</v>
+        <v>0.002318589715287089</v>
       </c>
       <c r="E31">
-        <v>0.344154417514801</v>
+        <v>0.003660651855170727</v>
       </c>
       <c r="F31">
-        <v>0.01058320607990026</v>
+        <v>0.02288168482482433</v>
       </c>
       <c r="G31">
-        <v>0.05102040991187096</v>
+        <v>0.1224489808082581</v>
       </c>
       <c r="H31">
-        <v>0.04259945452213287</v>
+        <v>0.03079984150826931</v>
       </c>
       <c r="I31">
-        <v>0.03412375971674919</v>
+        <v>0.03375441953539848</v>
       </c>
       <c r="J31">
-        <v>0.09530342370271683</v>
+        <v>0.01731238886713982</v>
       </c>
       <c r="K31">
-        <v>0.02064970321953297</v>
+        <v>0.08708872646093369</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32">
-        <v>0.8448196649551392</v>
+        <v>0.3418207168579102</v>
       </c>
       <c r="B32">
-        <v>0.8444271683692932</v>
+        <v>0.3417859375476837</v>
       </c>
       <c r="C32">
-        <v>0.766271710395813</v>
+        <v>0.3000199198722839</v>
       </c>
       <c r="D32">
-        <v>0.043267872184515</v>
+        <v>0.01002757158130407</v>
       </c>
       <c r="E32">
-        <v>0.03450678661465645</v>
+        <v>0.008518723770976067</v>
       </c>
       <c r="F32">
-        <v>0.02354026585817337</v>
+        <v>0.02598859183490276</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0.08163265138864517</v>
       </c>
       <c r="H32">
-        <v>0.2863408923149109</v>
+        <v>0.003312378423288465</v>
       </c>
       <c r="I32">
-        <v>0.2909579575061798</v>
+        <v>0.004800759721547365</v>
       </c>
       <c r="J32">
-        <v>0.2459008097648621</v>
+        <v>0.001520399004220963</v>
       </c>
       <c r="K32">
-        <v>0.722498893737793</v>
+        <v>0.1358766257762909</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33">
-        <v>0.1753490269184113</v>
+        <v>0.02572557516396046</v>
       </c>
       <c r="B33">
-        <v>0.1757039576768875</v>
+        <v>0.0257269162684679</v>
       </c>
       <c r="C33">
-        <v>0.1938134729862213</v>
+        <v>0.02771227620542049</v>
       </c>
       <c r="D33">
-        <v>0.1462246179580688</v>
+        <v>0.03202840313315392</v>
       </c>
       <c r="E33">
-        <v>0.1462195664644241</v>
+        <v>0.04364865645766258</v>
       </c>
       <c r="F33">
-        <v>0.02410570345818996</v>
+        <v>0.02209488861262798</v>
       </c>
       <c r="G33">
-        <v>0.1530612260103226</v>
+        <v>0.03061224520206451</v>
       </c>
       <c r="H33">
-        <v>0.04387076199054718</v>
+        <v>0.009070725180208683</v>
       </c>
       <c r="I33">
-        <v>0.03002144582569599</v>
+        <v>0.007558305282145739</v>
       </c>
       <c r="J33">
-        <v>0.1168984845280647</v>
+        <v>0.01951295509934425</v>
       </c>
       <c r="K33">
-        <v>0.04548640921711922</v>
+        <v>0.002970137167721987</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34">
-        <v>0.8181749582290649</v>
+        <v>0.1469752192497253</v>
       </c>
       <c r="B34">
-        <v>0.8183286190032959</v>
+        <v>0.1472291052341461</v>
       </c>
       <c r="C34">
-        <v>0.7387979626655579</v>
+        <v>0.1624241173267365</v>
       </c>
       <c r="D34">
-        <v>0.04176946356892586</v>
+        <v>0.1350717395544052</v>
       </c>
       <c r="E34">
-        <v>0.05345645919442177</v>
+        <v>0.1209494173526764</v>
       </c>
       <c r="F34">
-        <v>0.02611544914543629</v>
+        <v>0.09755755960941315</v>
       </c>
       <c r="G34">
-        <v>0.7755101919174194</v>
+        <v>0.2142857164144516</v>
       </c>
       <c r="H34">
-        <v>0.2375328540802002</v>
+        <v>0.08444316685199738</v>
       </c>
       <c r="I34">
-        <v>0.2430102080106735</v>
+        <v>0.07211583852767944</v>
       </c>
       <c r="J34">
-        <v>0.1950566470623016</v>
+        <v>0.1505958586931229</v>
       </c>
       <c r="K34">
-        <v>0.6803191304206848</v>
+        <v>0.03388816490769386</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35">
-        <v>0.6293607354164124</v>
+        <v>0.303932249546051</v>
       </c>
       <c r="B35">
-        <v>0.6288362145423889</v>
+        <v>0.3038465082645416</v>
       </c>
       <c r="C35">
-        <v>0.5684996843338013</v>
+        <v>0.5054461359977722</v>
       </c>
       <c r="D35">
-        <v>0.05258038640022278</v>
+        <v>0.3452141284942627</v>
       </c>
       <c r="E35">
-        <v>0.05343004316091537</v>
+        <v>0.2775270640850067</v>
       </c>
       <c r="F35">
-        <v>0.0255274623632431</v>
+        <v>0.0764072984457016</v>
       </c>
       <c r="G35">
-        <v>0.5612244606018066</v>
+        <v>0.1224489808082581</v>
       </c>
       <c r="H35">
-        <v>0.2106959372758865</v>
+        <v>0.03128821775317192</v>
       </c>
       <c r="I35">
-        <v>0.2234516888856888</v>
+        <v>0.01704473234713078</v>
       </c>
       <c r="J35">
-        <v>0.1702264398336411</v>
+        <v>0.1335757374763489</v>
       </c>
       <c r="K35">
-        <v>0.4138656556606293</v>
+        <v>0.1102475002408028</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36">
-        <v>0.2116762101650238</v>
+        <v>0.209982618689537</v>
       </c>
       <c r="B36">
-        <v>0.2114086002111435</v>
+        <v>0.2098927348852158</v>
       </c>
       <c r="C36">
-        <v>0.216928094625473</v>
+        <v>0.2083607465028763</v>
       </c>
       <c r="D36">
-        <v>0.08610659092664719</v>
+        <v>0.09472096711397171</v>
       </c>
       <c r="E36">
-        <v>0.04439697042107582</v>
+        <v>0.09695927798748016</v>
       </c>
       <c r="F36">
-        <v>0.107984833419323</v>
+        <v>0.0154244638979435</v>
       </c>
       <c r="G36">
-        <v>0.1938775479793549</v>
+        <v>0.0714285746216774</v>
       </c>
       <c r="H36">
-        <v>0.02668322063982487</v>
+        <v>0.03122367523610592</v>
       </c>
       <c r="I36">
-        <v>0.01336428988724947</v>
+        <v>0.02924931235611439</v>
       </c>
       <c r="J36">
-        <v>0.09707951545715332</v>
+        <v>0.02627533674240112</v>
       </c>
       <c r="K36">
-        <v>0.05989853665232658</v>
+        <v>0.0582817941904068</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37">
-        <v>0.303932249546051</v>
+        <v>0.166712611913681</v>
       </c>
       <c r="B37">
-        <v>0.3038465082645416</v>
+        <v>0.1666664481163025</v>
       </c>
       <c r="C37">
-        <v>0.5054461359977722</v>
+        <v>0.3067731857299805</v>
       </c>
       <c r="D37">
-        <v>0.3452141284942627</v>
+        <v>0.2802132070064545</v>
       </c>
       <c r="E37">
-        <v>0.2775270640850067</v>
+        <v>0.182960256934166</v>
       </c>
       <c r="F37">
-        <v>0.0764072984457016</v>
+        <v>0.05869357660412788</v>
       </c>
       <c r="G37">
-        <v>0.1224489808082581</v>
+        <v>0.1020408198237419</v>
       </c>
       <c r="H37">
-        <v>0.03128821775317192</v>
+        <v>0.03552056849002838</v>
       </c>
       <c r="I37">
-        <v>0.01704473234713078</v>
+        <v>0.02675681188702583</v>
       </c>
       <c r="J37">
-        <v>0.1335757374763489</v>
+        <v>0.09884233027696609</v>
       </c>
       <c r="K37">
-        <v>0.1102475002408028</v>
+        <v>0.03838006779551506</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38">
-        <v>0.3374450206756592</v>
+        <v>0.01004607975482941</v>
       </c>
       <c r="B38">
-        <v>0.3374496400356293</v>
+        <v>0.009920829907059669</v>
       </c>
       <c r="C38">
-        <v>0.6832351088523865</v>
+        <v>0.06271912157535553</v>
       </c>
       <c r="D38">
-        <v>0.8399906158447266</v>
+        <v>0.1376191675662994</v>
       </c>
       <c r="E38">
-        <v>0.7987667918205261</v>
+        <v>0.149408757686615</v>
       </c>
       <c r="F38">
-        <v>0.03442693874239922</v>
+        <v>0.01912751607596874</v>
       </c>
       <c r="G38">
-        <v>0.08163265138864517</v>
+        <v>0.1122448965907097</v>
       </c>
       <c r="H38">
-        <v>0.06122159585356712</v>
+        <v>0.02308319322764874</v>
       </c>
       <c r="I38">
-        <v>0.02787233330309391</v>
+        <v>0.01509497594088316</v>
       </c>
       <c r="J38">
-        <v>0.2573001682758331</v>
+        <v>0.06447651982307434</v>
       </c>
       <c r="K38">
-        <v>0.1442585736513138</v>
+        <v>0.001254407688975334</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39">
-        <v>0.303932249546051</v>
+        <v>0.5189482569694519</v>
       </c>
       <c r="B39">
-        <v>0.3038465082645416</v>
+        <v>0.5173987746238708</v>
       </c>
       <c r="C39">
-        <v>0.5054461359977722</v>
+        <v>0.6415191888809204</v>
       </c>
       <c r="D39">
-        <v>0.3452141284942627</v>
+        <v>0.3117718398571014</v>
       </c>
       <c r="E39">
-        <v>0.2775270640850067</v>
+        <v>0.2232867926359177</v>
       </c>
       <c r="F39">
-        <v>0.0764072984457016</v>
+        <v>0.07092276960611343</v>
       </c>
       <c r="G39">
-        <v>0.1224489808082581</v>
+        <v>0.2040816396474838</v>
       </c>
       <c r="H39">
-        <v>0.03128821775317192</v>
+        <v>0.1953887343406677</v>
       </c>
       <c r="I39">
-        <v>0.01704473234713078</v>
+        <v>0.05240345001220703</v>
       </c>
       <c r="J39">
-        <v>0.1335757374763489</v>
+        <v>0.7705120444297791</v>
       </c>
       <c r="K39">
-        <v>0.1102475002408028</v>
+        <v>0.2905197143554688</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40">
-        <v>0.7354972362518311</v>
+        <v>0.3051282167434692</v>
       </c>
       <c r="B40">
-        <v>0.7348169684410095</v>
+        <v>0.3052156567573547</v>
       </c>
       <c r="C40">
-        <v>0.6618941426277161</v>
+        <v>0.2839079797267914</v>
       </c>
       <c r="D40">
-        <v>0.04242788255214691</v>
+        <v>0.07075713574886322</v>
       </c>
       <c r="E40">
-        <v>0.03450889885425568</v>
+        <v>0.03861193358898163</v>
       </c>
       <c r="F40">
-        <v>0.02210498787462711</v>
+        <v>0.2149820774793625</v>
       </c>
       <c r="G40">
-        <v>0.1632653027772903</v>
+        <v>0.704081654548645</v>
       </c>
       <c r="H40">
-        <v>0.1844462007284164</v>
+        <v>0.1049038395285606</v>
       </c>
       <c r="I40">
-        <v>0.1913727223873138</v>
+        <v>0.1036519631743431</v>
       </c>
       <c r="J40">
-        <v>0.05119110271334648</v>
+        <v>0.1041899472475052</v>
       </c>
       <c r="K40">
-        <v>0.555275022983551</v>
+        <v>0.1117508262395859</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41">
-        <v>0.4434278607368469</v>
+        <v>0.3068480789661407</v>
       </c>
       <c r="B41">
-        <v>0.4434502124786377</v>
+        <v>0.3065734207630157</v>
       </c>
       <c r="C41">
-        <v>0.401686429977417</v>
+        <v>0.3000855147838593</v>
       </c>
       <c r="D41">
-        <v>0.04263534024357796</v>
+        <v>0.1182106584310532</v>
       </c>
       <c r="E41">
-        <v>0.04189439117908478</v>
+        <v>0.09259852766990662</v>
       </c>
       <c r="F41">
-        <v>0.03429263085126877</v>
+        <v>0.04477337002754211</v>
       </c>
       <c r="G41">
-        <v>0.3469387888908386</v>
+        <v>0.08163265138864517</v>
       </c>
       <c r="H41">
-        <v>0.08746965974569321</v>
+        <v>0.04390166699886322</v>
       </c>
       <c r="I41">
-        <v>0.08696383237838745</v>
+        <v>0.03441489487886429</v>
       </c>
       <c r="J41">
-        <v>0.07203858345746994</v>
+        <v>0.07179291546344757</v>
       </c>
       <c r="K41">
-        <v>0.2174297869205475</v>
+        <v>0.1123525276780128</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42">
-        <v>0.7648317813873291</v>
+        <v>0.335251122713089</v>
       </c>
       <c r="B42">
-        <v>0.7648212313652039</v>
+        <v>0.3358800411224365</v>
       </c>
       <c r="C42">
-        <v>0.8211612105369568</v>
+        <v>0.4954986572265625</v>
       </c>
       <c r="D42">
-        <v>0.3402568399906158</v>
+        <v>0.6933663487434387</v>
       </c>
       <c r="E42">
-        <v>0.2459686696529388</v>
+        <v>0.8434925079345703</v>
       </c>
       <c r="F42">
-        <v>0.03947950154542923</v>
+        <v>0.007296308409422636</v>
       </c>
       <c r="G42">
-        <v>0.3163265287876129</v>
+        <v>0.1224489808082581</v>
       </c>
       <c r="H42">
-        <v>0.2245792299509048</v>
+        <v>0.06938323378562927</v>
       </c>
       <c r="I42">
-        <v>0.09380093216896057</v>
+        <v>0.04504657909274101</v>
       </c>
       <c r="J42">
-        <v>0.6060838103294373</v>
+        <v>0.1766564399003983</v>
       </c>
       <c r="K42">
-        <v>0.6022499203681946</v>
+        <v>0.1463524699211121</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43">
-        <v>0.8304648399353027</v>
+        <v>0.4137212634086609</v>
       </c>
       <c r="B43">
-        <v>0.8306031823158264</v>
+        <v>0.4135721027851105</v>
       </c>
       <c r="C43">
-        <v>0.749789297580719</v>
+        <v>0.5902959108352661</v>
       </c>
       <c r="D43">
-        <v>0.03337016701698303</v>
+        <v>0.3211339712142944</v>
       </c>
       <c r="E43">
-        <v>0.01555816922336817</v>
+        <v>0.2521780729293823</v>
       </c>
       <c r="F43">
-        <v>0.04419258236885071</v>
+        <v>0.1075270771980286</v>
       </c>
       <c r="G43">
-        <v>0.2959183752536774</v>
+        <v>0.1632653027772903</v>
       </c>
       <c r="H43">
-        <v>0.1973109841346741</v>
+        <v>0.05248930677771568</v>
       </c>
       <c r="I43">
-        <v>0.2097017914056778</v>
+        <v>0.01855213008821011</v>
       </c>
       <c r="J43">
-        <v>0.09165877103805542</v>
+        <v>0.2333267778158188</v>
       </c>
       <c r="K43">
-        <v>0.6982158422470093</v>
+        <v>0.1982842981815338</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44">
-        <v>0.4137212634086609</v>
+        <v>0.2313316464424133</v>
       </c>
       <c r="B44">
-        <v>0.4135721027851105</v>
+        <v>0.2312931269407272</v>
       </c>
       <c r="C44">
-        <v>0.5902959108352661</v>
+        <v>0.2854329943656921</v>
       </c>
       <c r="D44">
-        <v>0.3211339712142944</v>
+        <v>0.1786345839500427</v>
       </c>
       <c r="E44">
-        <v>0.2521780729293823</v>
+        <v>0.1392340809106827</v>
       </c>
       <c r="F44">
-        <v>0.1075270771980286</v>
+        <v>0.03116073273122311</v>
       </c>
       <c r="G44">
-        <v>0.1632653027772903</v>
+        <v>0.1836734712123871</v>
       </c>
       <c r="H44">
-        <v>0.05248930677771568</v>
+        <v>0.03913019225001335</v>
       </c>
       <c r="I44">
-        <v>0.01855213008821011</v>
+        <v>0.03341998532414436</v>
       </c>
       <c r="J44">
-        <v>0.2333267778158188</v>
+        <v>0.07049314677715302</v>
       </c>
       <c r="K44">
-        <v>0.1982842981815338</v>
+        <v>0.07238136976957321</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45">
-        <v>0.6293607354164124</v>
+        <v>0.1313200443983078</v>
       </c>
       <c r="B45">
-        <v>0.6288362145423889</v>
+        <v>0.1315848827362061</v>
       </c>
       <c r="C45">
-        <v>0.5684996843338013</v>
+        <v>0.2217546105384827</v>
       </c>
       <c r="D45">
-        <v>0.05258038640022278</v>
+        <v>0.1704262793064117</v>
       </c>
       <c r="E45">
-        <v>0.05343004316091537</v>
+        <v>0.1140994802117348</v>
       </c>
       <c r="F45">
-        <v>0.0255274623632431</v>
+        <v>0.0697791799902916</v>
       </c>
       <c r="G45">
-        <v>0.5612244606018066</v>
+        <v>0.2346938848495483</v>
       </c>
       <c r="H45">
-        <v>0.2106959372758865</v>
+        <v>0.1027986854314804</v>
       </c>
       <c r="I45">
-        <v>0.2234516888856888</v>
+        <v>0.06942707300186157</v>
       </c>
       <c r="J45">
-        <v>0.1702264398336411</v>
+        <v>0.1911830306053162</v>
       </c>
       <c r="K45">
-        <v>0.4138656556606293</v>
+        <v>0.02729088813066483</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46">
-        <v>0.7648317813873291</v>
+        <v>0.02297393418848515</v>
       </c>
       <c r="B46">
-        <v>0.7648212313652039</v>
+        <v>0.02301271818578243</v>
       </c>
       <c r="C46">
-        <v>0.8211612105369568</v>
+        <v>0.05404211208224297</v>
       </c>
       <c r="D46">
-        <v>0.3402568399906158</v>
+        <v>0.06181229278445244</v>
       </c>
       <c r="E46">
-        <v>0.2459686696529388</v>
+        <v>0.03062772378325462</v>
       </c>
       <c r="F46">
-        <v>0.03947950154542923</v>
+        <v>0.1681616604328156</v>
       </c>
       <c r="G46">
-        <v>0.3163265287876129</v>
+        <v>0.1428571492433548</v>
       </c>
       <c r="H46">
-        <v>0.2245792299509048</v>
+        <v>0.01576710306107998</v>
       </c>
       <c r="I46">
-        <v>0.09380093216896057</v>
+        <v>0.0030485475435853</v>
       </c>
       <c r="J46">
-        <v>0.6060838103294373</v>
+        <v>0.07336597889661789</v>
       </c>
       <c r="K46">
-        <v>0.6022499203681946</v>
+        <v>0.002778973197564483</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47">
-        <v>0.6293607354164124</v>
+        <v>0.0327712669968605</v>
       </c>
       <c r="B47">
-        <v>0.6288362145423889</v>
+        <v>0.03281914815306664</v>
       </c>
       <c r="C47">
-        <v>0.5684996843338013</v>
+        <v>0.02647069469094276</v>
       </c>
       <c r="D47">
-        <v>0.05258038640022278</v>
+        <v>0.01995285041630268</v>
       </c>
       <c r="E47">
-        <v>0.05343004316091537</v>
+        <v>0.01018298789858818</v>
       </c>
       <c r="F47">
-        <v>0.0255274623632431</v>
+        <v>0.7778699398040771</v>
       </c>
       <c r="G47">
-        <v>0.5612244606018066</v>
+        <v>0.3265306055545807</v>
       </c>
       <c r="H47">
-        <v>0.2106959372758865</v>
+        <v>0.03847360610961914</v>
       </c>
       <c r="I47">
-        <v>0.2234516888856888</v>
+        <v>0.03796107694506645</v>
       </c>
       <c r="J47">
-        <v>0.1702264398336411</v>
+        <v>0.0274699330329895</v>
       </c>
       <c r="K47">
-        <v>0.4138656556606293</v>
+        <v>0.003901719581335783</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48">
-        <v>0.6293607354164124</v>
+        <v>0.1877275854349136</v>
       </c>
       <c r="B48">
-        <v>0.6288362145423889</v>
+        <v>0.1876883208751678</v>
       </c>
       <c r="C48">
-        <v>0.5684996843338013</v>
+        <v>0.2949751317501068</v>
       </c>
       <c r="D48">
-        <v>0.05258038640022278</v>
+        <v>0.236639067530632</v>
       </c>
       <c r="E48">
-        <v>0.05343004316091537</v>
+        <v>0.1232787445187569</v>
       </c>
       <c r="F48">
-        <v>0.0255274623632431</v>
+        <v>0.2299485355615616</v>
       </c>
       <c r="G48">
-        <v>0.5612244606018066</v>
+        <v>0.1836734712123871</v>
       </c>
       <c r="H48">
-        <v>0.2106959372758865</v>
+        <v>0.1183173581957817</v>
       </c>
       <c r="I48">
-        <v>0.2234516888856888</v>
+        <v>0.05042229220271111</v>
       </c>
       <c r="J48">
-        <v>0.1702264398336411</v>
+        <v>0.3915244936943054</v>
       </c>
       <c r="K48">
-        <v>0.4138656556606293</v>
+        <v>0.04950141906738281</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49">
-        <v>0.0327712669968605</v>
+        <v>0.4024366140365601</v>
       </c>
       <c r="B49">
-        <v>0.03281914815306664</v>
+        <v>0.4024144411087036</v>
       </c>
       <c r="C49">
-        <v>0.02647069469094276</v>
+        <v>0.3888705968856812</v>
       </c>
       <c r="D49">
-        <v>0.01995285041630268</v>
+        <v>0.1037994995713234</v>
       </c>
       <c r="E49">
-        <v>0.01018298789858818</v>
+        <v>0.1230965480208397</v>
       </c>
       <c r="F49">
-        <v>0.7778699398040771</v>
+        <v>0.008495671674609184</v>
       </c>
       <c r="G49">
-        <v>0.3265306055545807</v>
+        <v>0.1938775479793549</v>
       </c>
       <c r="H49">
-        <v>0.03847360610961914</v>
+        <v>0.03734780102968216</v>
       </c>
       <c r="I49">
-        <v>0.03796107694506645</v>
+        <v>0.03337382897734642</v>
       </c>
       <c r="J49">
-        <v>0.0274699330329895</v>
+        <v>0.05121645331382751</v>
       </c>
       <c r="K49">
-        <v>0.003901719581335783</v>
+        <v>0.180098369717598</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50">
-        <v>0.1753490269184113</v>
+        <v>0.4351587295532227</v>
       </c>
       <c r="B50">
-        <v>0.1757039576768875</v>
+        <v>0.4357514679431915</v>
       </c>
       <c r="C50">
-        <v>0.1938134729862213</v>
+        <v>0.4071835577487946</v>
       </c>
       <c r="D50">
-        <v>0.1462246179580688</v>
+        <v>0.07273437082767487</v>
       </c>
       <c r="E50">
-        <v>0.1462195664644241</v>
+        <v>0.0470597967505455</v>
       </c>
       <c r="F50">
-        <v>0.02410570345818996</v>
+        <v>0.03542663156986237</v>
       </c>
       <c r="G50">
-        <v>0.1530612260103226</v>
+        <v>0.3775510191917419</v>
       </c>
       <c r="H50">
-        <v>0.04387076199054718</v>
+        <v>0.07076853513717651</v>
       </c>
       <c r="I50">
-        <v>0.03002144582569599</v>
+        <v>0.0698285698890686</v>
       </c>
       <c r="J50">
-        <v>0.1168984845280647</v>
+        <v>0.04270357638597488</v>
       </c>
       <c r="K50">
-        <v>0.04548640921711922</v>
+        <v>0.2056328058242798</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51">
-        <v>0.03982560336589813</v>
+        <v>0.1908861845731735</v>
       </c>
       <c r="B51">
-        <v>0.03976508975028992</v>
+        <v>0.1901172697544098</v>
       </c>
       <c r="C51">
-        <v>0.03631410002708435</v>
+        <v>0.3625360727310181</v>
       </c>
       <c r="D51">
-        <v>0.002677895594388247</v>
+        <v>0.3031013011932373</v>
       </c>
       <c r="E51">
-        <v>0.00339256227016449</v>
+        <v>0.1039910838007927</v>
       </c>
       <c r="F51">
-        <v>0.3253001570701599</v>
+        <v>0.1332782804965973</v>
       </c>
       <c r="G51">
-        <v>0.3877550959587097</v>
+        <v>0.1938775479793549</v>
       </c>
       <c r="H51">
-        <v>0.03769757226109505</v>
+        <v>0.1920112669467926</v>
       </c>
       <c r="I51">
-        <v>0.03881534934043884</v>
+        <v>0.1245600953698158</v>
       </c>
       <c r="J51">
-        <v>0.02977349795401096</v>
+        <v>0.3606820404529572</v>
       </c>
       <c r="K51">
-        <v>0.004902860149741173</v>
+        <v>0.05462770164012909</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52">
-        <v>0.5050114393234253</v>
+        <v>0.05014719441533089</v>
       </c>
       <c r="B52">
-        <v>0.5047759413719177</v>
+        <v>0.05016511306166649</v>
       </c>
       <c r="C52">
-        <v>0.6030685901641846</v>
+        <v>0.04409481957554817</v>
       </c>
       <c r="D52">
-        <v>0.2835314273834229</v>
+        <v>0.02848190627992153</v>
       </c>
       <c r="E52">
-        <v>0.2239193171262741</v>
+        <v>0.01496500335633755</v>
       </c>
       <c r="F52">
-        <v>0.06538299471139908</v>
+        <v>0.07894855737686157</v>
       </c>
       <c r="G52">
-        <v>0.1632653027772903</v>
+        <v>0.05102040991187096</v>
       </c>
       <c r="H52">
-        <v>0.09072314202785492</v>
+        <v>0.004907788708806038</v>
       </c>
       <c r="I52">
-        <v>0.03076431341469288</v>
+        <v>0.003277885494753718</v>
       </c>
       <c r="J52">
-        <v>0.3595961034297943</v>
+        <v>0.01271338202059269</v>
       </c>
       <c r="K52">
-        <v>0.2794380187988281</v>
+        <v>0.006830153055489063</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53">
-        <v>0.6293607354164124</v>
+        <v>0.1005829498171806</v>
       </c>
       <c r="B53">
-        <v>0.6288362145423889</v>
+        <v>0.1004635095596313</v>
       </c>
       <c r="C53">
-        <v>0.5684996843338013</v>
+        <v>0.1415150314569473</v>
       </c>
       <c r="D53">
-        <v>0.05258038640022278</v>
+        <v>0.1183012723922729</v>
       </c>
       <c r="E53">
-        <v>0.05343004316091537</v>
+        <v>0.09486821293830872</v>
       </c>
       <c r="F53">
-        <v>0.0255274623632431</v>
+        <v>0.04052026942372322</v>
       </c>
       <c r="G53">
-        <v>0.5612244606018066</v>
+        <v>0.2244897931814194</v>
       </c>
       <c r="H53">
-        <v>0.2106959372758865</v>
+        <v>0.04443201050162315</v>
       </c>
       <c r="I53">
-        <v>0.2234516888856888</v>
+        <v>0.01350842230021954</v>
       </c>
       <c r="J53">
-        <v>0.1702264398336411</v>
+        <v>0.1711607724428177</v>
       </c>
       <c r="K53">
-        <v>0.4138656556606293</v>
+        <v>0.01902171783149242</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54">
-        <v>0.8948155045509338</v>
+        <v>0.7354972362518311</v>
       </c>
       <c r="B54">
-        <v>0.8949540853500366</v>
+        <v>0.7348169684410095</v>
       </c>
       <c r="C54">
-        <v>0.8047227263450623</v>
+        <v>0.6618941426277161</v>
       </c>
       <c r="D54">
-        <v>0.02720965258777142</v>
+        <v>0.04242788255214691</v>
       </c>
       <c r="E54">
-        <v>0.03447931259870529</v>
+        <v>0.03450889885425568</v>
       </c>
       <c r="F54">
-        <v>0.02955976687371731</v>
+        <v>0.02210498787462711</v>
       </c>
       <c r="G54">
-        <v>0.4489795863628387</v>
+        <v>0.1632653027772903</v>
       </c>
       <c r="H54">
-        <v>0.2028222382068634</v>
+        <v>0.1844462007284164</v>
       </c>
       <c r="I54">
-        <v>0.2098147869110107</v>
+        <v>0.1913727223873138</v>
       </c>
       <c r="J54">
-        <v>0.1194671168923378</v>
+        <v>0.05119110271334648</v>
       </c>
       <c r="K54">
-        <v>0.8052372336387634</v>
+        <v>0.555275022983551</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55">
-        <v>0.5939577221870422</v>
+        <v>0.9168014526367188</v>
       </c>
       <c r="B55">
-        <v>0.5936647057533264</v>
+        <v>0.916176974773407</v>
       </c>
       <c r="C55">
-        <v>0.9577085971832275</v>
+        <v>0.8939405083656311</v>
       </c>
       <c r="D55">
-        <v>0.7204368114471436</v>
+        <v>0.3444962501525879</v>
       </c>
       <c r="E55">
-        <v>0.7037366628646851</v>
+        <v>0.1653542220592499</v>
       </c>
       <c r="F55">
-        <v>0.04273220151662827</v>
+        <v>0.08496967703104019</v>
       </c>
       <c r="G55">
-        <v>0.1530612260103226</v>
+        <v>0.8877550959587097</v>
       </c>
       <c r="H55">
-        <v>0.08158379048109055</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <v>0.02591070160269737</v>
+        <v>1</v>
       </c>
       <c r="J55">
-        <v>0.358186274766922</v>
+        <v>0.7839993238449097</v>
       </c>
       <c r="K55">
-        <v>0.4056169390678406</v>
+        <v>0.8269488215446472</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56">
-        <v>0.6401448249816895</v>
+        <v>0.3838178515434265</v>
       </c>
       <c r="B56">
-        <v>0.6397091746330261</v>
+        <v>0.3838111162185669</v>
       </c>
       <c r="C56">
-        <v>0.5959688425064087</v>
+        <v>0.374992847442627</v>
       </c>
       <c r="D56">
-        <v>0.05146590247750282</v>
+        <v>0.1098808348178864</v>
       </c>
       <c r="E56">
-        <v>0.03450678661465645</v>
+        <v>0.1227619722485542</v>
       </c>
       <c r="F56">
-        <v>0.1004016697406769</v>
+        <v>0.02459905482828617</v>
       </c>
       <c r="G56">
-        <v>0.5510203838348389</v>
+        <v>0.3673469424247742</v>
       </c>
       <c r="H56">
-        <v>0.2229409962892532</v>
+        <v>0.05010624974966049</v>
       </c>
       <c r="I56">
-        <v>0.2273828834295273</v>
+        <v>0.05024494603276253</v>
       </c>
       <c r="J56">
-        <v>0.1499159187078476</v>
+        <v>0.03966598957777023</v>
       </c>
       <c r="K56">
-        <v>0.42429119348526</v>
+        <v>0.1677192449569702</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57">
-        <v>0.6401448249816895</v>
+        <v>0.4007297158241272</v>
       </c>
       <c r="B57">
-        <v>0.6397091746330261</v>
+        <v>0.4007495939731598</v>
       </c>
       <c r="C57">
-        <v>0.5959688425064087</v>
+        <v>0.3641707897186279</v>
       </c>
       <c r="D57">
-        <v>0.05146590247750282</v>
+        <v>0.03127749264240265</v>
       </c>
       <c r="E57">
-        <v>0.03450678661465645</v>
+        <v>0.009539349935948849</v>
       </c>
       <c r="F57">
-        <v>0.1004016697406769</v>
+        <v>0.1413296014070511</v>
       </c>
       <c r="G57">
-        <v>0.5510203838348389</v>
+        <v>0.4693877696990967</v>
       </c>
       <c r="H57">
-        <v>0.2229409962892532</v>
+        <v>0.07881183922290802</v>
       </c>
       <c r="I57">
-        <v>0.2273828834295273</v>
+        <v>0.07964520901441574</v>
       </c>
       <c r="J57">
-        <v>0.1499159187078476</v>
+        <v>0.06617347896099091</v>
       </c>
       <c r="K57">
-        <v>0.42429119348526</v>
+        <v>0.1799605786800385</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58">
-        <v>0.04302994906902313</v>
+        <v>0.8208404183387756</v>
       </c>
       <c r="B58">
-        <v>0.04326271265745163</v>
+        <v>0.8212341070175171</v>
       </c>
       <c r="C58">
-        <v>0.03828154876828194</v>
+        <v>0.7552822232246399</v>
       </c>
       <c r="D58">
-        <v>0.06010087952017784</v>
+        <v>0.04311391711235046</v>
       </c>
       <c r="E58">
-        <v>0.0271563995629549</v>
+        <v>0.03450678661465645</v>
       </c>
       <c r="F58">
-        <v>0.2451642155647278</v>
+        <v>0.04846277832984924</v>
       </c>
       <c r="G58">
-        <v>0.6734693646430969</v>
+        <v>0.5918367505073547</v>
       </c>
       <c r="H58">
-        <v>0.05892718583345413</v>
+        <v>0.2317642569541931</v>
       </c>
       <c r="I58">
-        <v>0.05760447680950165</v>
+        <v>0.2399519830942154</v>
       </c>
       <c r="J58">
-        <v>0.09207784384489059</v>
+        <v>0.1306406408548355</v>
       </c>
       <c r="K58">
-        <v>0.005503227934241295</v>
+        <v>0.6843286156654358</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59">
-        <v>0.04652892425656319</v>
+        <v>0.2967105209827423</v>
       </c>
       <c r="B59">
-        <v>0.04643329605460167</v>
+        <v>0.2967557907104492</v>
       </c>
       <c r="C59">
-        <v>0.03828154876828194</v>
+        <v>0.2587577700614929</v>
       </c>
       <c r="D59">
-        <v>0.009939837269484997</v>
+        <v>0.008409392088651657</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>0.01071937568485737</v>
       </c>
       <c r="F59">
-        <v>0.1267888098955154</v>
+        <v>0.02398485876619816</v>
       </c>
       <c r="G59">
-        <v>0.2755101919174194</v>
+        <v>0.2551020383834839</v>
       </c>
       <c r="H59">
-        <v>0.04177569225430489</v>
+        <v>0.02473228611052036</v>
       </c>
       <c r="I59">
-        <v>0.04288295656442642</v>
+        <v>0.02739850990474224</v>
       </c>
       <c r="J59">
-        <v>0.03517317026853561</v>
+        <v>0.01636053994297981</v>
       </c>
       <c r="K59">
-        <v>0.005999859422445297</v>
+        <v>0.105838768184185</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60">
-        <v>0.1753490269184113</v>
+        <v>0.3365601897239685</v>
       </c>
       <c r="B60">
-        <v>0.1757039576768875</v>
+        <v>0.33639857172966</v>
       </c>
       <c r="C60">
-        <v>0.1938134729862213</v>
+        <v>0.5464196801185608</v>
       </c>
       <c r="D60">
-        <v>0.1462246179580688</v>
+        <v>0.3964624106884003</v>
       </c>
       <c r="E60">
-        <v>0.1462195664644241</v>
+        <v>0.3444804847240448</v>
       </c>
       <c r="F60">
-        <v>0.02410570345818996</v>
+        <v>0.07947632670402527</v>
       </c>
       <c r="G60">
-        <v>0.1530612260103226</v>
+        <v>0.1122448965907097</v>
       </c>
       <c r="H60">
-        <v>0.04387076199054718</v>
+        <v>0.06115758419036865</v>
       </c>
       <c r="I60">
-        <v>0.03002144582569599</v>
+        <v>0.02416857704520226</v>
       </c>
       <c r="J60">
-        <v>0.1168984845280647</v>
+        <v>0.2576220333576202</v>
       </c>
       <c r="K60">
-        <v>0.04548640921711922</v>
+        <v>0.1482816487550735</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61">
-        <v>0.3846131265163422</v>
+        <v>0.245188906788826</v>
       </c>
       <c r="B61">
-        <v>0.3844519257545471</v>
+        <v>0.2452362924814224</v>
       </c>
       <c r="C61">
-        <v>0.5392043590545654</v>
+        <v>0.2137412577867508</v>
       </c>
       <c r="D61">
-        <v>0.3734634816646576</v>
+        <v>0.008650267496705055</v>
       </c>
       <c r="E61">
-        <v>0.3615991771221161</v>
+        <v>0.007192769087851048</v>
       </c>
       <c r="F61">
-        <v>0.03441670164465904</v>
+        <v>0.03228240460157394</v>
       </c>
       <c r="G61">
-        <v>0.0714285746216774</v>
+        <v>0.1122448965907097</v>
       </c>
       <c r="H61">
-        <v>0.05602766200900078</v>
+        <v>0.02834266424179077</v>
       </c>
       <c r="I61">
-        <v>0.02177784033119678</v>
+        <v>0.03078398108482361</v>
       </c>
       <c r="J61">
-        <v>0.2398574203252792</v>
+        <v>0.01481492910534143</v>
       </c>
       <c r="K61">
-        <v>0.1750906109809875</v>
+        <v>0.07582446187734604</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62">
-        <v>0.7985613942146301</v>
+        <v>0.7239385843276978</v>
       </c>
       <c r="B62">
-        <v>0.7990687489509583</v>
+        <v>0.7223968505859375</v>
       </c>
       <c r="C62">
-        <v>0.7333075404167175</v>
+        <v>0.7960790395736694</v>
       </c>
       <c r="D62">
-        <v>0.1173548549413681</v>
+        <v>0.6500055193901062</v>
       </c>
       <c r="E62">
-        <v>0.1481752395629883</v>
+        <v>0.5592138767242432</v>
       </c>
       <c r="F62">
-        <v>0.005743794143199921</v>
+        <v>0.02089023403823376</v>
       </c>
       <c r="G62">
-        <v>0.6020408272743225</v>
+        <v>0.6428571343421936</v>
       </c>
       <c r="H62">
-        <v>0.2294658124446869</v>
+        <v>0.9278364181518555</v>
       </c>
       <c r="I62">
-        <v>0.2320535629987717</v>
+        <v>0.9032540321350098</v>
       </c>
       <c r="J62">
-        <v>0.1574250608682632</v>
+        <v>0.7934749722480774</v>
       </c>
       <c r="K62">
-        <v>0.6530696749687195</v>
+        <v>0.5432890057563782</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63">
-        <v>0.1313200443983078</v>
+        <v>0</v>
       </c>
       <c r="B63">
-        <v>0.1315848827362061</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>0.2217546105384827</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>0.1704262793064117</v>
+        <v>0.004625414498150349</v>
       </c>
       <c r="E63">
-        <v>0.1140994802117348</v>
+        <v>0.001933189574629068</v>
       </c>
       <c r="F63">
-        <v>0.0697791799902916</v>
+        <v>0.199620857834816</v>
       </c>
       <c r="G63">
-        <v>0.2346938848495483</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>0.1027986854314804</v>
+        <v>0.000615604454651475</v>
       </c>
       <c r="I63">
-        <v>0.06942707300186157</v>
+        <v>0.00103381893131882</v>
       </c>
       <c r="J63">
-        <v>0.1911830306053162</v>
+        <v>0</v>
       </c>
       <c r="K63">
-        <v>0.02729088813066483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64">
-        <v>0.8208404183387756</v>
+        <v>0.08706628531217575</v>
       </c>
       <c r="B64">
-        <v>0.8212341070175171</v>
+        <v>0.08701454848051071</v>
       </c>
       <c r="C64">
-        <v>0.7552822232246399</v>
+        <v>0.08015821129083633</v>
       </c>
       <c r="D64">
-        <v>0.04311391711235046</v>
+        <v>0.02097072452306747</v>
       </c>
       <c r="E64">
-        <v>0.03450678661465645</v>
+        <v>0.02643803507089615</v>
       </c>
       <c r="F64">
-        <v>0.04846277832984924</v>
+        <v>0.02418598532676697</v>
       </c>
       <c r="G64">
-        <v>0.5918367505073547</v>
+        <v>0.01020408142358065</v>
       </c>
       <c r="H64">
-        <v>0.2317642569541931</v>
+        <v>0.006272510625422001</v>
       </c>
       <c r="I64">
-        <v>0.2399519830942154</v>
+        <v>0.006254109553992748</v>
       </c>
       <c r="J64">
-        <v>0.1306406408548355</v>
+        <v>0.003782327519729733</v>
       </c>
       <c r="K64">
-        <v>0.6843286156654358</v>
+        <v>0.01441236212849617</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2649,2802 +2649,2802 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66">
-        <v>0.1753490269184113</v>
+        <v>0.2919757068157196</v>
       </c>
       <c r="B66">
-        <v>0.1757039576768875</v>
+        <v>0.2917552590370178</v>
       </c>
       <c r="C66">
-        <v>0.1938134729862213</v>
+        <v>0.2565122246742249</v>
       </c>
       <c r="D66">
-        <v>0.1462246179580688</v>
+        <v>0.01088915299624205</v>
       </c>
       <c r="E66">
-        <v>0.1462195664644241</v>
+        <v>0.01050290465354919</v>
       </c>
       <c r="F66">
-        <v>0.02410570345818996</v>
+        <v>0.03801244124770164</v>
       </c>
       <c r="G66">
-        <v>0.1530612260103226</v>
+        <v>0.2551020383834839</v>
       </c>
       <c r="H66">
-        <v>0.04387076199054718</v>
+        <v>0.03131129220128059</v>
       </c>
       <c r="I66">
-        <v>0.03002144582569599</v>
+        <v>0.03115483745932579</v>
       </c>
       <c r="J66">
-        <v>0.1168984845280647</v>
+        <v>0.01428123842924833</v>
       </c>
       <c r="K66">
-        <v>0.04548640921711922</v>
+        <v>0.1028135195374489</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67">
-        <v>0.0327712669968605</v>
+        <v>0.5965349078178406</v>
       </c>
       <c r="B67">
-        <v>0.03281914815306664</v>
+        <v>0.5950998067855835</v>
       </c>
       <c r="C67">
-        <v>0.02647069469094276</v>
+        <v>0.6415411829948425</v>
       </c>
       <c r="D67">
-        <v>0.01995285041630268</v>
+        <v>0.4610998034477234</v>
       </c>
       <c r="E67">
-        <v>0.01018298789858818</v>
+        <v>0.5457584261894226</v>
       </c>
       <c r="F67">
-        <v>0.7778699398040771</v>
+        <v>0.01057752873748541</v>
       </c>
       <c r="G67">
-        <v>0.3265306055545807</v>
+        <v>0.2959183752536774</v>
       </c>
       <c r="H67">
-        <v>0.03847360610961914</v>
+        <v>0.1518841236829758</v>
       </c>
       <c r="I67">
-        <v>0.03796107694506645</v>
+        <v>0.1310144513845444</v>
       </c>
       <c r="J67">
-        <v>0.0274699330329895</v>
+        <v>0.24842469394207</v>
       </c>
       <c r="K67">
-        <v>0.003901719581335783</v>
+        <v>0.3666346073150635</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68">
-        <v>0.4712074995040894</v>
+        <v>1</v>
       </c>
       <c r="B68">
-        <v>0.4709193408489227</v>
+        <v>1</v>
       </c>
       <c r="C68">
-        <v>0.4392020702362061</v>
+        <v>0.9265779852867126</v>
       </c>
       <c r="D68">
-        <v>0.06040651351213455</v>
+        <v>0.3005592226982117</v>
       </c>
       <c r="E68">
-        <v>0.06130236014723778</v>
+        <v>0.05284171923995018</v>
       </c>
       <c r="F68">
-        <v>0.03425490856170654</v>
+        <v>0.456854373216629</v>
       </c>
       <c r="G68">
-        <v>0.2857142984867096</v>
+        <v>0.6530612111091614</v>
       </c>
       <c r="H68">
-        <v>0.08097141236066818</v>
+        <v>0.9075043797492981</v>
       </c>
       <c r="I68">
-        <v>0.08098094910383224</v>
+        <v>0.9017121195793152</v>
       </c>
       <c r="J68">
-        <v>0.06526998430490494</v>
+        <v>0.6133673191070557</v>
       </c>
       <c r="K68">
-        <v>0.2399918586015701</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69">
-        <v>0.7985613942146301</v>
+        <v>0.3184807300567627</v>
       </c>
       <c r="B69">
-        <v>0.7990687489509583</v>
+        <v>0.3184548914432526</v>
       </c>
       <c r="C69">
-        <v>0.7333075404167175</v>
+        <v>0.2884281575679779</v>
       </c>
       <c r="D69">
-        <v>0.1173548549413681</v>
+        <v>0.01911955326795578</v>
       </c>
       <c r="E69">
-        <v>0.1481752395629883</v>
+        <v>0.02130746282637119</v>
       </c>
       <c r="F69">
-        <v>0.005743794143199921</v>
+        <v>0.03539970517158508</v>
       </c>
       <c r="G69">
-        <v>0.6020408272743225</v>
+        <v>0.1530612260103226</v>
       </c>
       <c r="H69">
-        <v>0.2294658124446869</v>
+        <v>0.02863037958741188</v>
       </c>
       <c r="I69">
-        <v>0.2320535629987717</v>
+        <v>0.03052453510463238</v>
       </c>
       <c r="J69">
-        <v>0.1574250608682632</v>
+        <v>0.0239191148430109</v>
       </c>
       <c r="K69">
-        <v>0.6530696749687195</v>
+        <v>0.1187489926815033</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70">
-        <v>0.2116762101650238</v>
+        <v>0.3743968307971954</v>
       </c>
       <c r="B70">
-        <v>0.2114086002111435</v>
+        <v>0.3741769194602966</v>
       </c>
       <c r="C70">
-        <v>0.216928094625473</v>
+        <v>0.327757716178894</v>
       </c>
       <c r="D70">
-        <v>0.08610659092664719</v>
+        <v>0.01093499455600977</v>
       </c>
       <c r="E70">
-        <v>0.04439697042107582</v>
+        <v>0.005010961089283228</v>
       </c>
       <c r="F70">
-        <v>0.107984833419323</v>
+        <v>0.03273173421621323</v>
       </c>
       <c r="G70">
-        <v>0.1938775479793549</v>
+        <v>0.4897959232330322</v>
       </c>
       <c r="H70">
-        <v>0.02668322063982487</v>
+        <v>0.09205970168113708</v>
       </c>
       <c r="I70">
-        <v>0.01336428988724947</v>
+        <v>0.09409182518720627</v>
       </c>
       <c r="J70">
-        <v>0.09707951545715332</v>
+        <v>0.06788428127765656</v>
       </c>
       <c r="K70">
-        <v>0.05989853665232658</v>
+        <v>0.1595286428928375</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71">
-        <v>0.7706466317176819</v>
+        <v>0.5870723724365234</v>
       </c>
       <c r="B71">
-        <v>0.7703661322593689</v>
+        <v>0.5868269205093384</v>
       </c>
       <c r="C71">
-        <v>0.7666556835174561</v>
+        <v>0.6699309349060059</v>
       </c>
       <c r="D71">
-        <v>0.2226224839687347</v>
+        <v>0.399199366569519</v>
       </c>
       <c r="E71">
-        <v>0.1208247467875481</v>
+        <v>0.4138687252998352</v>
       </c>
       <c r="F71">
-        <v>0.08951687812805176</v>
+        <v>0.02064314112067223</v>
       </c>
       <c r="G71">
         <v>0.3265306055545807</v>
       </c>
       <c r="H71">
-        <v>0.1028806492686272</v>
+        <v>0.1010452210903168</v>
       </c>
       <c r="I71">
-        <v>0.07580652087926865</v>
+        <v>0.08968571573495865</v>
       </c>
       <c r="J71">
-        <v>0.2446397244930267</v>
+        <v>0.1679843366146088</v>
       </c>
       <c r="K71">
-        <v>0.6127419471740723</v>
+        <v>0.3639621436595917</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72">
-        <v>0.7354972362518311</v>
+        <v>0.3891868591308594</v>
       </c>
       <c r="B72">
-        <v>0.7348169684410095</v>
+        <v>0.3890146613121033</v>
       </c>
       <c r="C72">
-        <v>0.6618941426277161</v>
+        <v>0.3472439348697662</v>
       </c>
       <c r="D72">
-        <v>0.04242788255214691</v>
+        <v>0.03115271590650082</v>
       </c>
       <c r="E72">
-        <v>0.03450889885425568</v>
+        <v>0.0302084106951952</v>
       </c>
       <c r="F72">
-        <v>0.02210498787462711</v>
+        <v>0.03746214136481285</v>
       </c>
       <c r="G72">
-        <v>0.1632653027772903</v>
+        <v>0.6836734414100647</v>
       </c>
       <c r="H72">
-        <v>0.1844462007284164</v>
+        <v>0.1050440594553947</v>
       </c>
       <c r="I72">
-        <v>0.1913727223873138</v>
+        <v>0.1105909496545792</v>
       </c>
       <c r="J72">
-        <v>0.05119110271334648</v>
+        <v>0.08626473695039749</v>
       </c>
       <c r="K72">
-        <v>0.555275022983551</v>
+        <v>0.170063704252243</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73">
-        <v>0.4712074995040894</v>
+        <v>0.5881866216659546</v>
       </c>
       <c r="B73">
-        <v>0.4709193408489227</v>
+        <v>0.5879940390586853</v>
       </c>
       <c r="C73">
-        <v>0.4392020702362061</v>
+        <v>0.585579514503479</v>
       </c>
       <c r="D73">
-        <v>0.06040651351213455</v>
+        <v>0.146447092294693</v>
       </c>
       <c r="E73">
-        <v>0.06130236014723778</v>
+        <v>0.1479645073413849</v>
       </c>
       <c r="F73">
-        <v>0.03425490856170654</v>
+        <v>0.02845427766442299</v>
       </c>
       <c r="G73">
-        <v>0.2857142984867096</v>
+        <v>0.3265306055545807</v>
       </c>
       <c r="H73">
-        <v>0.08097141236066818</v>
+        <v>0.04537264257669449</v>
       </c>
       <c r="I73">
-        <v>0.08098094910383224</v>
+        <v>0.04562345519661903</v>
       </c>
       <c r="J73">
-        <v>0.06526998430490494</v>
+        <v>0.06090514361858368</v>
       </c>
       <c r="K73">
-        <v>0.2399918586015701</v>
+        <v>0.3648744821548462</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74">
-        <v>0.141416996717453</v>
+        <v>0.4712074995040894</v>
       </c>
       <c r="B74">
-        <v>0.141404777765274</v>
+        <v>0.4709193408489227</v>
       </c>
       <c r="C74">
-        <v>0.2207006812095642</v>
+        <v>0.4392020702362061</v>
       </c>
       <c r="D74">
-        <v>0.1890439391136169</v>
+        <v>0.06040651351213455</v>
       </c>
       <c r="E74">
-        <v>0.1867762953042984</v>
+        <v>0.06130236014723778</v>
       </c>
       <c r="F74">
-        <v>0.03562000021338463</v>
+        <v>0.03425490856170654</v>
       </c>
       <c r="G74">
-        <v>0.08163265138864517</v>
+        <v>0.2857142984867096</v>
       </c>
       <c r="H74">
-        <v>0.03896967321634293</v>
+        <v>0.08097141236066818</v>
       </c>
       <c r="I74">
-        <v>0.03461917489767075</v>
+        <v>0.08098094910383224</v>
       </c>
       <c r="J74">
-        <v>0.04696225374937057</v>
+        <v>0.06526998430490494</v>
       </c>
       <c r="K74">
-        <v>0.03086108155548573</v>
+        <v>0.2399918586015701</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75">
-        <v>0.1670136749744415</v>
+        <v>0.5349778532981873</v>
       </c>
       <c r="B75">
-        <v>0.1667556166648865</v>
+        <v>0.5346826910972595</v>
       </c>
       <c r="C75">
-        <v>0.2353508472442627</v>
+        <v>0.6159541606903076</v>
       </c>
       <c r="D75">
-        <v>0.3006471395492554</v>
+        <v>0.2637480199337006</v>
       </c>
       <c r="E75">
-        <v>0.2847500443458557</v>
+        <v>0.2257062792778015</v>
       </c>
       <c r="F75">
-        <v>0.01923273876309395</v>
+        <v>0.06074909120798111</v>
       </c>
       <c r="G75">
-        <v>0.2857142984867096</v>
+        <v>0.3163265287876129</v>
       </c>
       <c r="H75">
-        <v>0.09606355428695679</v>
+        <v>0.224361315369606</v>
       </c>
       <c r="I75">
-        <v>0.0339546799659729</v>
+        <v>0.09444070607423782</v>
       </c>
       <c r="J75">
-        <v>0.3298622667789459</v>
+        <v>0.6294746398925781</v>
       </c>
       <c r="K75">
-        <v>0.0417640432715416</v>
+        <v>0.3123790323734283</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76">
-        <v>0.5437613129615784</v>
+        <v>0.1660716533660889</v>
       </c>
       <c r="B76">
-        <v>0.543587863445282</v>
+        <v>0.1661426424980164</v>
       </c>
       <c r="C76">
-        <v>0.4977083802223206</v>
+        <v>0.1509526968002319</v>
       </c>
       <c r="D76">
-        <v>0.04252344369888306</v>
+        <v>0.0549856424331665</v>
       </c>
       <c r="E76">
-        <v>0.05666223913431168</v>
+        <v>0.03051527589559555</v>
       </c>
       <c r="F76">
-        <v>0.01887150295078754</v>
+        <v>0.9741916060447693</v>
       </c>
       <c r="G76">
-        <v>0.3265306055545807</v>
+        <v>0.2244897931814194</v>
       </c>
       <c r="H76">
-        <v>0.03734205290675163</v>
+        <v>0.03815386816859245</v>
       </c>
       <c r="I76">
-        <v>0.03843821585178375</v>
+        <v>0.03576135262846947</v>
       </c>
       <c r="J76">
-        <v>0.03021581098437309</v>
+        <v>0.06648870557546616</v>
       </c>
       <c r="K76">
-        <v>0.3154820501804352</v>
+        <v>0.03969316929578781</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77">
-        <v>0.7354972362518311</v>
+        <v>0.3529105484485626</v>
       </c>
       <c r="B77">
-        <v>0.7348169684410095</v>
+        <v>0.3529185354709625</v>
       </c>
       <c r="C77">
-        <v>0.6618941426277161</v>
+        <v>0.3204494118690491</v>
       </c>
       <c r="D77">
-        <v>0.04242788255214691</v>
+        <v>0.0592595636844635</v>
       </c>
       <c r="E77">
-        <v>0.03450889885425568</v>
+        <v>0.02180488780140877</v>
       </c>
       <c r="F77">
-        <v>0.02210498787462711</v>
+        <v>0.3360449075698853</v>
       </c>
       <c r="G77">
-        <v>0.1632653027772903</v>
+        <v>0.5306122303009033</v>
       </c>
       <c r="H77">
-        <v>0.1844462007284164</v>
+        <v>0.1090698391199112</v>
       </c>
       <c r="I77">
-        <v>0.1913727223873138</v>
+        <v>0.1060905307531357</v>
       </c>
       <c r="J77">
-        <v>0.05119110271334648</v>
+        <v>0.1205004304647446</v>
       </c>
       <c r="K77">
-        <v>0.555275022983551</v>
+        <v>0.1444591134786606</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78">
-        <v>0.2955805063247681</v>
+        <v>0.5437613129615784</v>
       </c>
       <c r="B78">
-        <v>0.2955935001373291</v>
+        <v>0.543587863445282</v>
       </c>
       <c r="C78">
-        <v>0.3579575717449188</v>
+        <v>0.4977083802223206</v>
       </c>
       <c r="D78">
-        <v>0.1290455311536789</v>
+        <v>0.04252344369888306</v>
       </c>
       <c r="E78">
-        <v>0.08342450112104416</v>
+        <v>0.05666223913431168</v>
       </c>
       <c r="F78">
-        <v>0.1808808892965317</v>
+        <v>0.01887150295078754</v>
       </c>
       <c r="G78">
-        <v>0.1734693944454193</v>
+        <v>0.3265306055545807</v>
       </c>
       <c r="H78">
-        <v>0.04394552111625671</v>
+        <v>0.03734205290675163</v>
       </c>
       <c r="I78">
-        <v>0.0330640897154808</v>
+        <v>0.03843821585178375</v>
       </c>
       <c r="J78">
-        <v>0.1197739318013191</v>
+        <v>0.03021581098437309</v>
       </c>
       <c r="K78">
-        <v>0.1044954732060432</v>
+        <v>0.3154820501804352</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79">
-        <v>0.03982560336589813</v>
+        <v>0.4696408212184906</v>
       </c>
       <c r="B79">
-        <v>0.03976508975028992</v>
+        <v>0.469018816947937</v>
       </c>
       <c r="C79">
-        <v>0.03631410002708435</v>
+        <v>0.8038492798805237</v>
       </c>
       <c r="D79">
-        <v>0.002677895594388247</v>
+        <v>0.4217565059661865</v>
       </c>
       <c r="E79">
-        <v>0.00339256227016449</v>
+        <v>0.2473428249359131</v>
       </c>
       <c r="F79">
-        <v>0.3253001570701599</v>
+        <v>0.2071579992771149</v>
       </c>
       <c r="G79">
-        <v>0.3877550959587097</v>
+        <v>0.2142857164144516</v>
       </c>
       <c r="H79">
-        <v>0.03769757226109505</v>
+        <v>0.1366582810878754</v>
       </c>
       <c r="I79">
-        <v>0.03881534934043884</v>
+        <v>0.04367655143141747</v>
       </c>
       <c r="J79">
-        <v>0.02977349795401096</v>
+        <v>0.5325929522514343</v>
       </c>
       <c r="K79">
-        <v>0.004902860149741173</v>
+        <v>0.2508980929851532</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80">
-        <v>0.0327712669968605</v>
+        <v>0.2867580950260162</v>
       </c>
       <c r="B80">
-        <v>0.03281914815306664</v>
+        <v>0.2863161265850067</v>
       </c>
       <c r="C80">
-        <v>0.02647069469094276</v>
+        <v>0.3483676314353943</v>
       </c>
       <c r="D80">
-        <v>0.01995285041630268</v>
+        <v>0.1685481816530228</v>
       </c>
       <c r="E80">
-        <v>0.01018298789858818</v>
+        <v>0.1599049270153046</v>
       </c>
       <c r="F80">
-        <v>0.7778699398040771</v>
+        <v>0.04442983865737915</v>
       </c>
       <c r="G80">
-        <v>0.3265306055545807</v>
+        <v>0.2448979616165161</v>
       </c>
       <c r="H80">
-        <v>0.03847360610961914</v>
+        <v>0.06062675267457962</v>
       </c>
       <c r="I80">
-        <v>0.03796107694506645</v>
+        <v>0.04658567160367966</v>
       </c>
       <c r="J80">
-        <v>0.0274699330329895</v>
+        <v>0.1102583780884743</v>
       </c>
       <c r="K80">
-        <v>0.003901719581335783</v>
+        <v>0.09906776994466782</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81">
-        <v>0.04652892425656319</v>
+        <v>0.8448196649551392</v>
       </c>
       <c r="B81">
-        <v>0.04643329605460167</v>
+        <v>0.8444271683692932</v>
       </c>
       <c r="C81">
-        <v>0.03828154876828194</v>
+        <v>0.766271710395813</v>
       </c>
       <c r="D81">
-        <v>0.009939837269484997</v>
+        <v>0.043267872184515</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>0.03450678661465645</v>
       </c>
       <c r="F81">
-        <v>0.1267888098955154</v>
+        <v>0.02354026585817337</v>
       </c>
       <c r="G81">
-        <v>0.2755101919174194</v>
+        <v>1</v>
       </c>
       <c r="H81">
-        <v>0.04177569225430489</v>
+        <v>0.2863408923149109</v>
       </c>
       <c r="I81">
-        <v>0.04288295656442642</v>
+        <v>0.2909579575061798</v>
       </c>
       <c r="J81">
-        <v>0.03517317026853561</v>
+        <v>0.2459008097648621</v>
       </c>
       <c r="K81">
-        <v>0.005999859422445297</v>
+        <v>0.722498893737793</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82">
-        <v>0.7985613942146301</v>
+        <v>0.1602841317653656</v>
       </c>
       <c r="B82">
-        <v>0.7990687489509583</v>
+        <v>0.1603269577026367</v>
       </c>
       <c r="C82">
-        <v>0.7333075404167175</v>
+        <v>0.2093125730752945</v>
       </c>
       <c r="D82">
-        <v>0.1173548549413681</v>
+        <v>0.1926971673965454</v>
       </c>
       <c r="E82">
-        <v>0.1481752395629883</v>
+        <v>0.1950469017028809</v>
       </c>
       <c r="F82">
-        <v>0.005743794143199921</v>
+        <v>0.02103270590305328</v>
       </c>
       <c r="G82">
-        <v>0.6020408272743225</v>
+        <v>0.1734693944454193</v>
       </c>
       <c r="H82">
-        <v>0.2294658124446869</v>
+        <v>0.04350210726261139</v>
       </c>
       <c r="I82">
-        <v>0.2320535629987717</v>
+        <v>0.03726855292916298</v>
       </c>
       <c r="J82">
-        <v>0.1574250608682632</v>
+        <v>0.06771969050168991</v>
       </c>
       <c r="K82">
-        <v>0.6530696749687195</v>
+        <v>0.03797946125268936</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83">
-        <v>0.1877275854349136</v>
+        <v>0.6293607354164124</v>
       </c>
       <c r="B83">
-        <v>0.1876883208751678</v>
+        <v>0.6288362145423889</v>
       </c>
       <c r="C83">
-        <v>0.2949751317501068</v>
+        <v>0.5684996843338013</v>
       </c>
       <c r="D83">
-        <v>0.236639067530632</v>
+        <v>0.05258038640022278</v>
       </c>
       <c r="E83">
-        <v>0.1232787445187569</v>
+        <v>0.05343004316091537</v>
       </c>
       <c r="F83">
-        <v>0.2299485355615616</v>
+        <v>0.0255274623632431</v>
       </c>
       <c r="G83">
-        <v>0.1836734712123871</v>
+        <v>0.5612244606018066</v>
       </c>
       <c r="H83">
-        <v>0.1183173581957817</v>
+        <v>0.2106959372758865</v>
       </c>
       <c r="I83">
-        <v>0.05042229220271111</v>
+        <v>0.2234516888856888</v>
       </c>
       <c r="J83">
-        <v>0.3915244936943054</v>
+        <v>0.1702264398336411</v>
       </c>
       <c r="K83">
-        <v>0.04950141906738281</v>
+        <v>0.4138656556606293</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84">
-        <v>0.3891868591308594</v>
+        <v>0.2116762101650238</v>
       </c>
       <c r="B84">
-        <v>0.3890146613121033</v>
+        <v>0.2114086002111435</v>
       </c>
       <c r="C84">
-        <v>0.3472439348697662</v>
+        <v>0.216928094625473</v>
       </c>
       <c r="D84">
-        <v>0.03115271590650082</v>
+        <v>0.08610659092664719</v>
       </c>
       <c r="E84">
-        <v>0.0302084106951952</v>
+        <v>0.04439697042107582</v>
       </c>
       <c r="F84">
-        <v>0.03746214136481285</v>
+        <v>0.107984833419323</v>
       </c>
       <c r="G84">
-        <v>0.6836734414100647</v>
+        <v>0.1938775479793549</v>
       </c>
       <c r="H84">
-        <v>0.1050440594553947</v>
+        <v>0.02668322063982487</v>
       </c>
       <c r="I84">
-        <v>0.1105909496545792</v>
+        <v>0.01336428988724947</v>
       </c>
       <c r="J84">
-        <v>0.08626473695039749</v>
+        <v>0.09707951545715332</v>
       </c>
       <c r="K84">
-        <v>0.170063704252243</v>
+        <v>0.05989853665232658</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85">
-        <v>0.16610087454319</v>
+        <v>0.003031490836292505</v>
       </c>
       <c r="B85">
-        <v>0.1660010367631912</v>
+        <v>0.0031280224211514</v>
       </c>
       <c r="C85">
-        <v>0.1977350115776062</v>
+        <v>0.01427172590047121</v>
       </c>
       <c r="D85">
-        <v>0.0871141105890274</v>
+        <v>0.1026377305388451</v>
       </c>
       <c r="E85">
-        <v>0.01689436472952366</v>
+        <v>0.06590647995471954</v>
       </c>
       <c r="F85">
-        <v>0.1676542013883591</v>
+        <v>0.0436943918466568</v>
       </c>
       <c r="G85">
-        <v>0.1020408198237419</v>
+        <v>0.08163265138864517</v>
       </c>
       <c r="H85">
-        <v>0.05506835132837296</v>
+        <v>0.01105679292231798</v>
       </c>
       <c r="I85">
-        <v>0.03888082504272461</v>
+        <v>0.00554791372269392</v>
       </c>
       <c r="J85">
-        <v>0.08670005202293396</v>
+        <v>0.04699651896953583</v>
       </c>
       <c r="K85">
-        <v>0.03999016433954239</v>
+        <v>0.0006841645808890462</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86">
-        <v>0.1800316274166107</v>
+        <v>0.5079178810119629</v>
       </c>
       <c r="B86">
-        <v>0.1800415962934494</v>
+        <v>0.507729709148407</v>
       </c>
       <c r="C86">
-        <v>0.2437316477298737</v>
+        <v>0.7747335433959961</v>
       </c>
       <c r="D86">
-        <v>0.2523171007633209</v>
+        <v>0.4955276846885681</v>
       </c>
       <c r="E86">
-        <v>0.3032156825065613</v>
+        <v>0.3261483013629913</v>
       </c>
       <c r="F86">
-        <v>0.01111137308180332</v>
+        <v>0.09452585130929947</v>
       </c>
       <c r="G86">
-        <v>0.08163265138864517</v>
+        <v>0.1428571492433548</v>
       </c>
       <c r="H86">
-        <v>0.0155174033716321</v>
+        <v>0.05824869871139526</v>
       </c>
       <c r="I86">
-        <v>0.01315143052488565</v>
+        <v>0.02177553251385689</v>
       </c>
       <c r="J86">
-        <v>0.05098563060164452</v>
+        <v>0.2216583341360092</v>
       </c>
       <c r="K86">
-        <v>0.0467396005988121</v>
+        <v>0.2702610492706299</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87">
-        <v>0.3708542585372925</v>
+        <v>0.6285579204559326</v>
       </c>
       <c r="B87">
-        <v>0.3708159923553467</v>
+        <v>0.6268859505653381</v>
       </c>
       <c r="C87">
-        <v>0.3830704689025879</v>
+        <v>0.8118756413459778</v>
       </c>
       <c r="D87">
-        <v>0.2344121336936951</v>
+        <v>0.3992608785629272</v>
       </c>
       <c r="E87">
-        <v>0.2418247014284134</v>
+        <v>0.2720043361186981</v>
       </c>
       <c r="F87">
-        <v>0.01528333686292171</v>
+        <v>0.07238871604204178</v>
       </c>
       <c r="G87">
-        <v>0.4591836631298065</v>
+        <v>0.2959183752536774</v>
       </c>
       <c r="H87">
-        <v>0.04469338059425354</v>
+        <v>0.2064534574747086</v>
       </c>
       <c r="I87">
-        <v>0.04673172906041145</v>
+        <v>0.04943676292896271</v>
       </c>
       <c r="J87">
-        <v>0.04408244043588638</v>
+        <v>0.818881094455719</v>
       </c>
       <c r="K87">
-        <v>0.1526777893304825</v>
+        <v>0.4068554639816284</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88">
-        <v>0.1670136749744415</v>
+        <v>0.7985613942146301</v>
       </c>
       <c r="B88">
-        <v>0.1667556166648865</v>
+        <v>0.7990687489509583</v>
       </c>
       <c r="C88">
-        <v>0.2353508472442627</v>
+        <v>0.7333075404167175</v>
       </c>
       <c r="D88">
-        <v>0.3006471395492554</v>
+        <v>0.1173548549413681</v>
       </c>
       <c r="E88">
-        <v>0.2847500443458557</v>
+        <v>0.1481752395629883</v>
       </c>
       <c r="F88">
-        <v>0.01923273876309395</v>
+        <v>0.005743794143199921</v>
       </c>
       <c r="G88">
-        <v>0.2857142984867096</v>
+        <v>0.6020408272743225</v>
       </c>
       <c r="H88">
-        <v>0.09606355428695679</v>
+        <v>0.2294658124446869</v>
       </c>
       <c r="I88">
-        <v>0.0339546799659729</v>
+        <v>0.2320535629987717</v>
       </c>
       <c r="J88">
-        <v>0.3298622667789459</v>
+        <v>0.1574250608682632</v>
       </c>
       <c r="K88">
-        <v>0.0417640432715416</v>
+        <v>0.6530696749687195</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89">
-        <v>0.3680500090122223</v>
+        <v>0.848114550113678</v>
       </c>
       <c r="B89">
-        <v>0.3676040172576904</v>
+        <v>0.8478092551231384</v>
       </c>
       <c r="C89">
-        <v>0.447245866060257</v>
+        <v>1</v>
       </c>
       <c r="D89">
-        <v>0.3166250884532928</v>
+        <v>0.6255509257316589</v>
       </c>
       <c r="E89">
-        <v>0.2662487924098969</v>
+        <v>0.5855801701545715</v>
       </c>
       <c r="F89">
-        <v>0.04106517881155014</v>
+        <v>0.0236453041434288</v>
       </c>
       <c r="G89">
-        <v>0.1632653027772903</v>
+        <v>0.1530612260103226</v>
       </c>
       <c r="H89">
-        <v>0.05641663447022438</v>
+        <v>0.08720570802688599</v>
       </c>
       <c r="I89">
-        <v>0.02176915109157562</v>
+        <v>0.0209728516638279</v>
       </c>
       <c r="J89">
-        <v>0.2261813431978226</v>
+        <v>0.4013386368751526</v>
       </c>
       <c r="K89">
-        <v>0.1654299646615982</v>
+        <v>0.7424524426460266</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90">
-        <v>0.8205360770225525</v>
+        <v>0.5852082967758179</v>
       </c>
       <c r="B90">
-        <v>0.81758052110672</v>
+        <v>0.5850924253463745</v>
       </c>
       <c r="C90">
-        <v>0.7634416222572327</v>
+        <v>0.5223764777183533</v>
       </c>
       <c r="D90">
-        <v>0.1081322133541107</v>
+        <v>0.04557980969548225</v>
       </c>
       <c r="E90">
-        <v>0.1090760007500648</v>
+        <v>0.04414756596088409</v>
       </c>
       <c r="F90">
-        <v>0.03393283113837242</v>
+        <v>0.03194653615355492</v>
       </c>
       <c r="G90">
-        <v>0.7346938848495483</v>
+        <v>0.2448979616165161</v>
       </c>
       <c r="H90">
-        <v>0.8151280879974365</v>
+        <v>0.03591124713420868</v>
       </c>
       <c r="I90">
-        <v>0.8061392903327942</v>
+        <v>0.03797893226146698</v>
       </c>
       <c r="J90">
-        <v>0.511971652507782</v>
+        <v>0.0324208103120327</v>
       </c>
       <c r="K90">
-        <v>0.6752698421478271</v>
+        <v>0.3612024784088135</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91">
-        <v>0.9168014526367188</v>
+        <v>0.66993647813797</v>
       </c>
       <c r="B91">
-        <v>0.916176974773407</v>
+        <v>0.6699755191802979</v>
       </c>
       <c r="C91">
-        <v>0.8939405083656311</v>
+        <v>0.6355639696121216</v>
       </c>
       <c r="D91">
-        <v>0.3444962501525879</v>
+        <v>0.1111539974808693</v>
       </c>
       <c r="E91">
-        <v>0.1653542220592499</v>
+        <v>0.1167170405387878</v>
       </c>
       <c r="F91">
-        <v>0.08496967703104019</v>
+        <v>0.03336524963378906</v>
       </c>
       <c r="G91">
-        <v>0.8877550959587097</v>
+        <v>0.2142857164144516</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0.03153274953365326</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>0.03347717225551605</v>
       </c>
       <c r="J91">
-        <v>0.7839993238449097</v>
+        <v>0.03534260764718056</v>
       </c>
       <c r="K91">
-        <v>0.8269488215446472</v>
+        <v>0.4651080369949341</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92">
-        <v>0.2116762101650238</v>
+        <v>0.3382812440395355</v>
       </c>
       <c r="B92">
-        <v>0.2114086002111435</v>
+        <v>0.3379779458045959</v>
       </c>
       <c r="C92">
-        <v>0.216928094625473</v>
+        <v>0.4056950807571411</v>
       </c>
       <c r="D92">
-        <v>0.08610659092664719</v>
+        <v>0.1529630869626999</v>
       </c>
       <c r="E92">
-        <v>0.04439697042107582</v>
+        <v>0.09347899258136749</v>
       </c>
       <c r="F92">
-        <v>0.107984833419323</v>
+        <v>0.1083165928721428</v>
       </c>
       <c r="G92">
-        <v>0.1938775479793549</v>
+        <v>0.1428571492433548</v>
       </c>
       <c r="H92">
-        <v>0.02668322063982487</v>
+        <v>0.05153338238596916</v>
       </c>
       <c r="I92">
-        <v>0.01336428988724947</v>
+        <v>0.01829797029495239</v>
       </c>
       <c r="J92">
-        <v>0.09707951545715332</v>
+        <v>0.2118454426527023</v>
       </c>
       <c r="K92">
-        <v>0.05989853665232658</v>
+        <v>0.1323519349098206</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93">
-        <v>0.8205360770225525</v>
+        <v>0.5606532096862793</v>
       </c>
       <c r="B93">
-        <v>0.81758052110672</v>
+        <v>0.5595685243606567</v>
       </c>
       <c r="C93">
-        <v>0.7634416222572327</v>
+        <v>0.894741952419281</v>
       </c>
       <c r="D93">
-        <v>0.1081322133541107</v>
+        <v>0.451499730348587</v>
       </c>
       <c r="E93">
-        <v>0.1090760007500648</v>
+        <v>0.2948216199874878</v>
       </c>
       <c r="F93">
-        <v>0.03393283113837242</v>
+        <v>0.1689769178628922</v>
       </c>
       <c r="G93">
-        <v>0.7346938848495483</v>
+        <v>0.3469387888908386</v>
       </c>
       <c r="H93">
-        <v>0.8151280879974365</v>
+        <v>0.1723852753639221</v>
       </c>
       <c r="I93">
-        <v>0.8061392903327942</v>
+        <v>0.04965489357709885</v>
       </c>
       <c r="J93">
-        <v>0.511971652507782</v>
+        <v>0.6980032920837402</v>
       </c>
       <c r="K93">
-        <v>0.6752698421478271</v>
+        <v>0.3516163527965546</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94">
-        <v>0.2525643110275269</v>
+        <v>0.4634348750114441</v>
       </c>
       <c r="B94">
-        <v>0.2530057728290558</v>
+        <v>0.4633994996547699</v>
       </c>
       <c r="C94">
-        <v>0.5135542154312134</v>
+        <v>0.4104423820972443</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>0.02478424832224846</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0.01363423280417919</v>
       </c>
       <c r="F94">
-        <v>0.01798675954341888</v>
+        <v>0.2605949342250824</v>
       </c>
       <c r="G94">
-        <v>0.1326530575752258</v>
+        <v>0.1632653027772903</v>
       </c>
       <c r="H94">
-        <v>0.189332515001297</v>
+        <v>0.008633235469460487</v>
       </c>
       <c r="I94">
-        <v>0.1251168549060822</v>
+        <v>0.009920722804963589</v>
       </c>
       <c r="J94">
-        <v>0.5070326924324036</v>
+        <v>0.01239060144871473</v>
       </c>
       <c r="K94">
-        <v>0.1020806133747101</v>
+        <v>0.2355611324310303</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95">
-        <v>0.1670136749744415</v>
+        <v>0.1073071733117104</v>
       </c>
       <c r="B95">
-        <v>0.1667556166648865</v>
+        <v>0.1067540422081947</v>
       </c>
       <c r="C95">
-        <v>0.2353508472442627</v>
+        <v>0.1870075613260269</v>
       </c>
       <c r="D95">
-        <v>0.3006471395492554</v>
+        <v>0.4564730823040009</v>
       </c>
       <c r="E95">
-        <v>0.2847500443458557</v>
+        <v>0.5349534153938293</v>
       </c>
       <c r="F95">
-        <v>0.01923273876309395</v>
+        <v>0.0106248389929533</v>
       </c>
       <c r="G95">
-        <v>0.2857142984867096</v>
+        <v>0.2755101919174194</v>
       </c>
       <c r="H95">
-        <v>0.09606355428695679</v>
+        <v>0.1517189890146255</v>
       </c>
       <c r="I95">
-        <v>0.0339546799659729</v>
+        <v>0.1304892003536224</v>
       </c>
       <c r="J95">
-        <v>0.3298622667789459</v>
+        <v>0.2423287481069565</v>
       </c>
       <c r="K95">
-        <v>0.0417640432715416</v>
+        <v>0.03245396167039871</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96">
-        <v>0.3787654638290405</v>
+        <v>0.141416996717453</v>
       </c>
       <c r="B96">
-        <v>0.3786492943763733</v>
+        <v>0.141404777765274</v>
       </c>
       <c r="C96">
-        <v>0.3780478537082672</v>
+        <v>0.2207006812095642</v>
       </c>
       <c r="D96">
-        <v>0.1002975255250931</v>
+        <v>0.1890439391136169</v>
       </c>
       <c r="E96">
-        <v>0.06852513551712036</v>
+        <v>0.1867762953042984</v>
       </c>
       <c r="F96">
-        <v>0.04404962807893753</v>
+        <v>0.03562000021338463</v>
       </c>
       <c r="G96">
-        <v>0.3775510191917419</v>
+        <v>0.08163265138864517</v>
       </c>
       <c r="H96">
-        <v>0.0810825452208519</v>
+        <v>0.03896967321634293</v>
       </c>
       <c r="I96">
-        <v>0.07823110371828079</v>
+        <v>0.03461917489767075</v>
       </c>
       <c r="J96">
-        <v>0.1135774403810501</v>
+        <v>0.04696225374937057</v>
       </c>
       <c r="K96">
-        <v>0.1644790321588516</v>
+        <v>0.03086108155548573</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97">
-        <v>0.7993080615997314</v>
+        <v>0.3955228924751282</v>
       </c>
       <c r="B97">
-        <v>0.7990025281906128</v>
+        <v>0.3953976333141327</v>
       </c>
       <c r="C97">
-        <v>0.8450098037719727</v>
+        <v>0.4171139597892761</v>
       </c>
       <c r="D97">
-        <v>0.6355990171432495</v>
+        <v>0.2836497128009796</v>
       </c>
       <c r="E97">
-        <v>0.7280485033988953</v>
+        <v>0.1176856383681297</v>
       </c>
       <c r="F97">
-        <v>0.01165026240050793</v>
+        <v>0.5944162011146545</v>
       </c>
       <c r="G97">
-        <v>0.5714285969734192</v>
+        <v>0.08163265138864517</v>
       </c>
       <c r="H97">
-        <v>0.9633013606071472</v>
+        <v>0.09234438836574554</v>
       </c>
       <c r="I97">
-        <v>0.9654991030693054</v>
+        <v>0.06255876272916794</v>
       </c>
       <c r="J97">
-        <v>0.5407857894897461</v>
+        <v>0.2177525907754898</v>
       </c>
       <c r="K97">
-        <v>0.6900174021720886</v>
+        <v>0.1782061755657196</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98">
-        <v>0.6401448249816895</v>
+        <v>0.5158494114875793</v>
       </c>
       <c r="B98">
-        <v>0.6397091746330261</v>
+        <v>0.5154165625572205</v>
       </c>
       <c r="C98">
-        <v>0.5959688425064087</v>
+        <v>0.6182764172554016</v>
       </c>
       <c r="D98">
-        <v>0.05146590247750282</v>
+        <v>0.3216560781002045</v>
       </c>
       <c r="E98">
-        <v>0.03450678661465645</v>
+        <v>0.1176856383681297</v>
       </c>
       <c r="F98">
-        <v>0.1004016697406769</v>
+        <v>0.09430728852748871</v>
       </c>
       <c r="G98">
-        <v>0.5510203838348389</v>
+        <v>0.1428571492433548</v>
       </c>
       <c r="H98">
-        <v>0.2229409962892532</v>
+        <v>0.163056269288063</v>
       </c>
       <c r="I98">
-        <v>0.2273828834295273</v>
+        <v>0.1417467594146729</v>
       </c>
       <c r="J98">
-        <v>0.1499159187078476</v>
+        <v>0.3710980415344238</v>
       </c>
       <c r="K98">
-        <v>0.42429119348526</v>
+        <v>0.2857293784618378</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99">
-        <v>0.7648317813873291</v>
+        <v>0.1058340519666672</v>
       </c>
       <c r="B99">
-        <v>0.7648212313652039</v>
+        <v>0.1059128567576408</v>
       </c>
       <c r="C99">
-        <v>0.8211612105369568</v>
+        <v>0.1847037822008133</v>
       </c>
       <c r="D99">
-        <v>0.3402568399906158</v>
+        <v>0.3070013225078583</v>
       </c>
       <c r="E99">
-        <v>0.2459686696529388</v>
+        <v>0.344154417514801</v>
       </c>
       <c r="F99">
-        <v>0.03947950154542923</v>
+        <v>0.01058320607990026</v>
       </c>
       <c r="G99">
-        <v>0.3163265287876129</v>
+        <v>0.05102040991187096</v>
       </c>
       <c r="H99">
-        <v>0.2245792299509048</v>
+        <v>0.04259945452213287</v>
       </c>
       <c r="I99">
-        <v>0.09380093216896057</v>
+        <v>0.03412375971674919</v>
       </c>
       <c r="J99">
-        <v>0.6060838103294373</v>
+        <v>0.09530342370271683</v>
       </c>
       <c r="K99">
-        <v>0.6022499203681946</v>
+        <v>0.02064970321953297</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="A100">
-        <v>0.7354972362518311</v>
+        <v>0.3374450206756592</v>
       </c>
       <c r="B100">
-        <v>0.7348169684410095</v>
+        <v>0.3374496400356293</v>
       </c>
       <c r="C100">
-        <v>0.6618941426277161</v>
+        <v>0.6832351088523865</v>
       </c>
       <c r="D100">
-        <v>0.04242788255214691</v>
+        <v>0.8399906158447266</v>
       </c>
       <c r="E100">
-        <v>0.03450889885425568</v>
+        <v>0.7987667918205261</v>
       </c>
       <c r="F100">
-        <v>0.02210498787462711</v>
+        <v>0.03442693874239922</v>
       </c>
       <c r="G100">
-        <v>0.1632653027772903</v>
+        <v>0.08163265138864517</v>
       </c>
       <c r="H100">
-        <v>0.1844462007284164</v>
+        <v>0.06122159585356712</v>
       </c>
       <c r="I100">
-        <v>0.1913727223873138</v>
+        <v>0.02787233330309391</v>
       </c>
       <c r="J100">
-        <v>0.05119110271334648</v>
+        <v>0.2573001682758331</v>
       </c>
       <c r="K100">
-        <v>0.555275022983551</v>
+        <v>0.1442585736513138</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="A101">
-        <v>0.3028878569602966</v>
+        <v>0.1729738563299179</v>
       </c>
       <c r="B101">
-        <v>0.3029452264308929</v>
+        <v>0.1725996881723404</v>
       </c>
       <c r="C101">
-        <v>0.3780870735645294</v>
+        <v>0.3435066938400269</v>
       </c>
       <c r="D101">
-        <v>0.3471205830574036</v>
+        <v>0.2460226118564606</v>
       </c>
       <c r="E101">
-        <v>0.3872818052768707</v>
+        <v>0.1829588264226913</v>
       </c>
       <c r="F101">
-        <v>0.01644569076597691</v>
+        <v>0.1457014977931976</v>
       </c>
       <c r="G101">
-        <v>0.04081632569432259</v>
+        <v>0.1632653027772903</v>
       </c>
       <c r="H101">
-        <v>0.01443168986588717</v>
+        <v>0.05799549445509911</v>
       </c>
       <c r="I101">
-        <v>0.01201362535357475</v>
+        <v>0.03936814516782761</v>
       </c>
       <c r="J101">
-        <v>0.04510406404733658</v>
+        <v>0.1351219862699509</v>
       </c>
       <c r="K101">
-        <v>0.1116905882954597</v>
+        <v>0.04301582649350166</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="A102">
-        <v>0.7706466317176819</v>
+        <v>0.6844686269760132</v>
       </c>
       <c r="B102">
-        <v>0.7703661322593689</v>
+        <v>0.6841708421707153</v>
       </c>
       <c r="C102">
-        <v>0.7666556835174561</v>
+        <v>0.6179422736167908</v>
       </c>
       <c r="D102">
-        <v>0.2226224839687347</v>
+        <v>0.04290701448917389</v>
       </c>
       <c r="E102">
-        <v>0.1208247467875481</v>
+        <v>0.03447931259870529</v>
       </c>
       <c r="F102">
-        <v>0.08951687812805176</v>
+        <v>0.02506457641720772</v>
       </c>
       <c r="G102">
         <v>0.3265306055545807</v>
       </c>
       <c r="H102">
-        <v>0.1028806492686272</v>
+        <v>0.1751639991998672</v>
       </c>
       <c r="I102">
-        <v>0.07580652087926865</v>
+        <v>0.1854626387357712</v>
       </c>
       <c r="J102">
-        <v>0.2446397244930267</v>
+        <v>0.1068298295140266</v>
       </c>
       <c r="K102">
-        <v>0.6127419471740723</v>
+        <v>0.4828145205974579</v>
       </c>
     </row>
     <row r="103" spans="1:11">
       <c r="A103">
-        <v>0.3708164691925049</v>
+        <v>0.3620332479476929</v>
       </c>
       <c r="B103">
-        <v>0.3710432052612305</v>
+        <v>0.3616214692592621</v>
       </c>
       <c r="C103">
-        <v>0.3472878634929657</v>
+        <v>0.3180145919322968</v>
       </c>
       <c r="D103">
-        <v>0.05258354172110558</v>
+        <v>0.01153524406254292</v>
       </c>
       <c r="E103">
-        <v>0.03542338311672211</v>
+        <v>0.01341448444873095</v>
       </c>
       <c r="F103">
-        <v>0.3812735676765442</v>
+        <v>0.03265448287129402</v>
       </c>
       <c r="G103">
-        <v>0.4693877696990967</v>
+        <v>0.4897959232330322</v>
       </c>
       <c r="H103">
-        <v>0.1491032242774963</v>
+        <v>0.1032596528530121</v>
       </c>
       <c r="I103">
-        <v>0.1430056989192963</v>
+        <v>0.1053560003638268</v>
       </c>
       <c r="J103">
-        <v>0.08315899968147278</v>
+        <v>0.06627621501684189</v>
       </c>
       <c r="K103">
-        <v>0.1557241082191467</v>
+        <v>0.15015509724617</v>
       </c>
     </row>
     <row r="104" spans="1:11">
       <c r="A104">
-        <v>0.4007297158241272</v>
+        <v>0.2221162021160126</v>
       </c>
       <c r="B104">
-        <v>0.4007495939731598</v>
+        <v>0.2222135365009308</v>
       </c>
       <c r="C104">
-        <v>0.3641707897186279</v>
+        <v>0.2254454493522644</v>
       </c>
       <c r="D104">
-        <v>0.03127749264240265</v>
+        <v>0.09019378572702408</v>
       </c>
       <c r="E104">
-        <v>0.009539349935948849</v>
+        <v>0.04701545834541321</v>
       </c>
       <c r="F104">
-        <v>0.1413296014070511</v>
+        <v>0.0441337451338768</v>
       </c>
       <c r="G104">
-        <v>0.4693877696990967</v>
+        <v>0.581632673740387</v>
       </c>
       <c r="H104">
-        <v>0.07881183922290802</v>
+        <v>0.109049417078495</v>
       </c>
       <c r="I104">
-        <v>0.07964520901441574</v>
+        <v>0.1082889214158058</v>
       </c>
       <c r="J104">
-        <v>0.06617347896099091</v>
+        <v>0.0711861178278923</v>
       </c>
       <c r="K104">
-        <v>0.1799605786800385</v>
+        <v>0.06339085102081299</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="A105">
-        <v>0.3721108138561249</v>
+        <v>0.3528101444244385</v>
       </c>
       <c r="B105">
-        <v>0.3721077740192413</v>
+        <v>0.3527432680130005</v>
       </c>
       <c r="C105">
-        <v>0.5629991292953491</v>
+        <v>0.334265261888504</v>
       </c>
       <c r="D105">
-        <v>0.3712053596973419</v>
+        <v>0.09568583220243454</v>
       </c>
       <c r="E105">
-        <v>0.2977196276187897</v>
+        <v>0.1085048615932465</v>
       </c>
       <c r="F105">
-        <v>0.09492827951908112</v>
+        <v>0.01167547237128019</v>
       </c>
       <c r="G105">
-        <v>0.06122449040412903</v>
+        <v>0.09183673560619354</v>
       </c>
       <c r="H105">
-        <v>0.05325686559081078</v>
+        <v>0.008940265513956547</v>
       </c>
       <c r="I105">
-        <v>0.01817338913679123</v>
+        <v>0.01036824658513069</v>
       </c>
       <c r="J105">
-        <v>0.2469984591007233</v>
+        <v>0.01359965652227402</v>
       </c>
       <c r="K105">
-        <v>0.167956605553627</v>
+        <v>0.1436100900173187</v>
       </c>
     </row>
     <row r="106" spans="1:11">
       <c r="A106">
-        <v>1</v>
+        <v>0.02552147954702377</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>0.02471214160323143</v>
       </c>
       <c r="C106">
-        <v>0.9265779852867126</v>
+        <v>0.2369928359985352</v>
       </c>
       <c r="D106">
-        <v>0.3005592226982117</v>
+        <v>0.4878256320953369</v>
       </c>
       <c r="E106">
-        <v>0.05284171923995018</v>
+        <v>0.3201794922351837</v>
       </c>
       <c r="F106">
-        <v>0.456854373216629</v>
+        <v>0.05575722083449364</v>
       </c>
       <c r="G106">
-        <v>0.6530612111091614</v>
+        <v>0.2755101919174194</v>
       </c>
       <c r="H106">
-        <v>0.9075043797492981</v>
+        <v>0.3427695631980896</v>
       </c>
       <c r="I106">
-        <v>0.9017121195793152</v>
+        <v>0.3032202422618866</v>
       </c>
       <c r="J106">
-        <v>0.6133673191070557</v>
+        <v>0.6042928695678711</v>
       </c>
       <c r="K106">
-        <v>1</v>
+        <v>0.0114969601854682</v>
       </c>
     </row>
     <row r="107" spans="1:11">
       <c r="A107">
-        <v>0.5437613129615784</v>
+        <v>0.7706466317176819</v>
       </c>
       <c r="B107">
-        <v>0.543587863445282</v>
+        <v>0.7703661322593689</v>
       </c>
       <c r="C107">
-        <v>0.4977083802223206</v>
+        <v>0.7666556835174561</v>
       </c>
       <c r="D107">
-        <v>0.04252344369888306</v>
+        <v>0.2226224839687347</v>
       </c>
       <c r="E107">
-        <v>0.05666223913431168</v>
+        <v>0.1208247467875481</v>
       </c>
       <c r="F107">
-        <v>0.01887150295078754</v>
+        <v>0.08951687812805176</v>
       </c>
       <c r="G107">
         <v>0.3265306055545807</v>
       </c>
       <c r="H107">
-        <v>0.03734205290675163</v>
+        <v>0.1028806492686272</v>
       </c>
       <c r="I107">
-        <v>0.03843821585178375</v>
+        <v>0.07580652087926865</v>
       </c>
       <c r="J107">
-        <v>0.03021581098437309</v>
+        <v>0.2446397244930267</v>
       </c>
       <c r="K107">
-        <v>0.3154820501804352</v>
+        <v>0.6127419471740723</v>
       </c>
     </row>
     <row r="108" spans="1:11">
       <c r="A108">
-        <v>0.1005829498171806</v>
+        <v>0.3980836272239685</v>
       </c>
       <c r="B108">
-        <v>0.1004635095596313</v>
+        <v>0.3980476856231689</v>
       </c>
       <c r="C108">
-        <v>0.1415150314569473</v>
+        <v>0.5158510208129883</v>
       </c>
       <c r="D108">
-        <v>0.1183012723922729</v>
+        <v>0.3493326902389526</v>
       </c>
       <c r="E108">
-        <v>0.09486821293830872</v>
+        <v>0.2773210108280182</v>
       </c>
       <c r="F108">
-        <v>0.04052026942372322</v>
+        <v>0.03933199867606163</v>
       </c>
       <c r="G108">
-        <v>0.2244897931814194</v>
+        <v>0.3775510191917419</v>
       </c>
       <c r="H108">
-        <v>0.04443201050162315</v>
+        <v>0.2705148160457611</v>
       </c>
       <c r="I108">
-        <v>0.01350842230021954</v>
+        <v>0.1053699031472206</v>
       </c>
       <c r="J108">
-        <v>0.1711607724428177</v>
+        <v>0.7485461235046387</v>
       </c>
       <c r="K108">
-        <v>0.01902171783149242</v>
+        <v>0.1871366053819656</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109">
-        <v>0.04652892425656319</v>
+        <v>0.8181749582290649</v>
       </c>
       <c r="B109">
-        <v>0.04643329605460167</v>
+        <v>0.8183286190032959</v>
       </c>
       <c r="C109">
-        <v>0.03828154876828194</v>
+        <v>0.7387979626655579</v>
       </c>
       <c r="D109">
-        <v>0.009939837269484997</v>
+        <v>0.04176946356892586</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>0.05345645919442177</v>
       </c>
       <c r="F109">
-        <v>0.1267888098955154</v>
+        <v>0.02611544914543629</v>
       </c>
       <c r="G109">
-        <v>0.2755101919174194</v>
+        <v>0.7755101919174194</v>
       </c>
       <c r="H109">
-        <v>0.04177569225430489</v>
+        <v>0.2375328540802002</v>
       </c>
       <c r="I109">
-        <v>0.04288295656442642</v>
+        <v>0.2430102080106735</v>
       </c>
       <c r="J109">
-        <v>0.03517317026853561</v>
+        <v>0.1950566470623016</v>
       </c>
       <c r="K109">
-        <v>0.005999859422445297</v>
+        <v>0.6803191304206848</v>
       </c>
     </row>
     <row r="110" spans="1:11">
       <c r="A110">
-        <v>0.1602841317653656</v>
+        <v>0.3339170813560486</v>
       </c>
       <c r="B110">
-        <v>0.1603269577026367</v>
+        <v>0.3338292837142944</v>
       </c>
       <c r="C110">
-        <v>0.2093125730752945</v>
+        <v>0.3003918528556824</v>
       </c>
       <c r="D110">
-        <v>0.1926971673965454</v>
+        <v>0.0220742654055357</v>
       </c>
       <c r="E110">
-        <v>0.1950469017028809</v>
+        <v>0.009549453854560852</v>
       </c>
       <c r="F110">
-        <v>0.02103270590305328</v>
+        <v>0.03729110956192017</v>
       </c>
       <c r="G110">
-        <v>0.1734693944454193</v>
+        <v>0.6020408272743225</v>
       </c>
       <c r="H110">
-        <v>0.04350210726261139</v>
+        <v>0.07456144690513611</v>
       </c>
       <c r="I110">
-        <v>0.03726855292916298</v>
+        <v>0.07555804401636124</v>
       </c>
       <c r="J110">
-        <v>0.06771969050168991</v>
+        <v>0.05845686420798302</v>
       </c>
       <c r="K110">
-        <v>0.03797946125268936</v>
+        <v>0.1302689760923386</v>
       </c>
     </row>
     <row r="111" spans="1:11">
       <c r="A111">
-        <v>0.8205360770225525</v>
+        <v>0.5939577221870422</v>
       </c>
       <c r="B111">
-        <v>0.81758052110672</v>
+        <v>0.5936647057533264</v>
       </c>
       <c r="C111">
-        <v>0.7634416222572327</v>
+        <v>0.9577085971832275</v>
       </c>
       <c r="D111">
-        <v>0.1081322133541107</v>
+        <v>0.7204368114471436</v>
       </c>
       <c r="E111">
-        <v>0.1090760007500648</v>
+        <v>0.7037366628646851</v>
       </c>
       <c r="F111">
-        <v>0.03393283113837242</v>
+        <v>0.04273220151662827</v>
       </c>
       <c r="G111">
-        <v>0.7346938848495483</v>
+        <v>0.1530612260103226</v>
       </c>
       <c r="H111">
-        <v>0.8151280879974365</v>
+        <v>0.08158379048109055</v>
       </c>
       <c r="I111">
-        <v>0.8061392903327942</v>
+        <v>0.02591070160269737</v>
       </c>
       <c r="J111">
-        <v>0.511971652507782</v>
+        <v>0.358186274766922</v>
       </c>
       <c r="K111">
-        <v>0.6752698421478271</v>
+        <v>0.4056169390678406</v>
       </c>
     </row>
     <row r="112" spans="1:11">
       <c r="A112">
-        <v>0.5158494114875793</v>
+        <v>0.2772712111473083</v>
       </c>
       <c r="B112">
-        <v>0.5154165625572205</v>
+        <v>0.2771627902984619</v>
       </c>
       <c r="C112">
-        <v>0.6182764172554016</v>
+        <v>0.2464802414178848</v>
       </c>
       <c r="D112">
-        <v>0.3216560781002045</v>
+        <v>0.00238414853811264</v>
       </c>
       <c r="E112">
-        <v>0.1176856383681297</v>
+        <v>0.003666162025183439</v>
       </c>
       <c r="F112">
-        <v>0.09430728852748871</v>
+        <v>0.2449538260698318</v>
       </c>
       <c r="G112">
-        <v>0.1428571492433548</v>
+        <v>0.1632653027772903</v>
       </c>
       <c r="H112">
-        <v>0.163056269288063</v>
+        <v>0.02461161464452744</v>
       </c>
       <c r="I112">
-        <v>0.1417467594146729</v>
+        <v>0.02659433893859386</v>
       </c>
       <c r="J112">
-        <v>0.3710980415344238</v>
+        <v>0.0135864969342947</v>
       </c>
       <c r="K112">
-        <v>0.2857293784618378</v>
+        <v>0.09376069158315659</v>
       </c>
     </row>
     <row r="113" spans="1:11">
       <c r="A113">
-        <v>0.7244436740875244</v>
+        <v>0.640282154083252</v>
       </c>
       <c r="B113">
-        <v>0.7244302034378052</v>
+        <v>0.6405368447303772</v>
       </c>
       <c r="C113">
-        <v>0.6509077548980713</v>
+        <v>0.6676183342933655</v>
       </c>
       <c r="D113">
-        <v>0.0487808883190155</v>
+        <v>0.2912322580814362</v>
       </c>
       <c r="E113">
-        <v>0.03450678661465645</v>
+        <v>0.09914476424455643</v>
       </c>
       <c r="F113">
-        <v>0.04633117839694023</v>
+        <v>0.2331648766994476</v>
       </c>
       <c r="G113">
-        <v>0.5612244606018066</v>
+        <v>0.3163265287876129</v>
       </c>
       <c r="H113">
-        <v>0.2248805314302444</v>
+        <v>0.1642622649669647</v>
       </c>
       <c r="I113">
-        <v>0.2328717410564423</v>
+        <v>0.1198252514004707</v>
       </c>
       <c r="J113">
-        <v>0.1403956711292267</v>
+        <v>0.2664138376712799</v>
       </c>
       <c r="K113">
-        <v>0.5403000712394714</v>
+        <v>0.4380917847156525</v>
       </c>
     </row>
     <row r="114" spans="1:11">
       <c r="A114">
-        <v>0.4060307741165161</v>
+        <v>0.5209359526634216</v>
       </c>
       <c r="B114">
-        <v>0.4054626822471619</v>
+        <v>0.5201079845428467</v>
       </c>
       <c r="C114">
-        <v>0.6310588717460632</v>
+        <v>0.9344398379325867</v>
       </c>
       <c r="D114">
-        <v>0.3034385740756989</v>
+        <v>0.4542926251888275</v>
       </c>
       <c r="E114">
-        <v>0.120798721909523</v>
+        <v>0.2533016800880432</v>
       </c>
       <c r="F114">
-        <v>0.2659529149532318</v>
+        <v>0.3409488797187805</v>
       </c>
       <c r="G114">
-        <v>0.1530612260103226</v>
+        <v>0.2346938848495483</v>
       </c>
       <c r="H114">
-        <v>0.08450846374034882</v>
+        <v>0.2488836050033569</v>
       </c>
       <c r="I114">
-        <v>0.01771355234086514</v>
+        <v>0.1145893931388855</v>
       </c>
       <c r="J114">
-        <v>0.3959545791149139</v>
+        <v>0.7926450967788696</v>
       </c>
       <c r="K114">
-        <v>0.1817143857479095</v>
+        <v>0.2981335818767548</v>
       </c>
     </row>
     <row r="115" spans="1:11">
       <c r="A115">
-        <v>0.8181749582290649</v>
+        <v>0.3031297028064728</v>
       </c>
       <c r="B115">
-        <v>0.8183286190032959</v>
+        <v>0.3029411733150482</v>
       </c>
       <c r="C115">
-        <v>0.7387979626655579</v>
+        <v>0.2778812944889069</v>
       </c>
       <c r="D115">
-        <v>0.04176946356892586</v>
+        <v>0.04773864522576332</v>
       </c>
       <c r="E115">
-        <v>0.05345645919442177</v>
+        <v>0.04835529252886772</v>
       </c>
       <c r="F115">
-        <v>0.02611544914543629</v>
+        <v>0.02093465626239777</v>
       </c>
       <c r="G115">
-        <v>0.7755101919174194</v>
+        <v>0.3367346823215485</v>
       </c>
       <c r="H115">
-        <v>0.2375328540802002</v>
+        <v>0.05941639840602875</v>
       </c>
       <c r="I115">
-        <v>0.2430102080106735</v>
+        <v>0.06186778098344803</v>
       </c>
       <c r="J115">
-        <v>0.1950566470623016</v>
+        <v>0.03402893245220184</v>
       </c>
       <c r="K115">
-        <v>0.6803191304206848</v>
+        <v>0.1104265376925468</v>
       </c>
     </row>
     <row r="116" spans="1:11">
       <c r="A116">
-        <v>0.4060307741165161</v>
+        <v>0.03982560336589813</v>
       </c>
       <c r="B116">
-        <v>0.4054626822471619</v>
+        <v>0.03976508975028992</v>
       </c>
       <c r="C116">
-        <v>0.6310588717460632</v>
+        <v>0.03631410002708435</v>
       </c>
       <c r="D116">
-        <v>0.3034385740756989</v>
+        <v>0.002677895594388247</v>
       </c>
       <c r="E116">
-        <v>0.120798721909523</v>
+        <v>0.00339256227016449</v>
       </c>
       <c r="F116">
-        <v>0.2659529149532318</v>
+        <v>0.3253001570701599</v>
       </c>
       <c r="G116">
-        <v>0.1530612260103226</v>
+        <v>0.3877550959587097</v>
       </c>
       <c r="H116">
-        <v>0.08450846374034882</v>
+        <v>0.03769757226109505</v>
       </c>
       <c r="I116">
-        <v>0.01771355234086514</v>
+        <v>0.03881534934043884</v>
       </c>
       <c r="J116">
-        <v>0.3959545791149139</v>
+        <v>0.02977349795401096</v>
       </c>
       <c r="K116">
-        <v>0.1817143857479095</v>
+        <v>0.004902860149741173</v>
       </c>
     </row>
     <row r="117" spans="1:11">
       <c r="A117">
-        <v>0.2168306112289429</v>
+        <v>0.3546823263168335</v>
       </c>
       <c r="B117">
-        <v>0.2168048620223999</v>
+        <v>0.3547367751598358</v>
       </c>
       <c r="C117">
-        <v>0.4424697756767273</v>
+        <v>0.337536633014679</v>
       </c>
       <c r="D117">
-        <v>0.4909988343715668</v>
+        <v>0.0338914580643177</v>
       </c>
       <c r="E117">
-        <v>0.4668628871440887</v>
+        <v>0.03894876316189766</v>
       </c>
       <c r="F117">
-        <v>0.0433938279747963</v>
+        <v>0.08385039120912552</v>
       </c>
       <c r="G117">
-        <v>0.08163265138864517</v>
+        <v>0.2142857164144516</v>
       </c>
       <c r="H117">
-        <v>0.06365148723125458</v>
+        <v>0.02521807700395584</v>
       </c>
       <c r="I117">
-        <v>0.05276256427168846</v>
+        <v>0.02644185535609722</v>
       </c>
       <c r="J117">
-        <v>0.09591997414827347</v>
+        <v>0.03067492321133614</v>
       </c>
       <c r="K117">
-        <v>0.06401506066322327</v>
+        <v>0.1447190940380096</v>
       </c>
     </row>
     <row r="118" spans="1:11">
       <c r="A118">
-        <v>0.8448196649551392</v>
+        <v>0.3010642528533936</v>
       </c>
       <c r="B118">
-        <v>0.8444271683692932</v>
+        <v>0.2994586527347565</v>
       </c>
       <c r="C118">
-        <v>0.766271710395813</v>
+        <v>0.3703979253768921</v>
       </c>
       <c r="D118">
-        <v>0.043267872184515</v>
+        <v>0.3434630036354065</v>
       </c>
       <c r="E118">
-        <v>0.03450678661465645</v>
+        <v>0.4186225533485413</v>
       </c>
       <c r="F118">
-        <v>0.02354026585817337</v>
+        <v>0</v>
       </c>
       <c r="G118">
-        <v>1</v>
+        <v>0.1122448965907097</v>
       </c>
       <c r="H118">
-        <v>0.2863408923149109</v>
+        <v>0.04924016818404198</v>
       </c>
       <c r="I118">
-        <v>0.2909579575061798</v>
+        <v>0.03692274540662766</v>
       </c>
       <c r="J118">
-        <v>0.2459008097648621</v>
+        <v>0.04928074032068253</v>
       </c>
       <c r="K118">
-        <v>0.722498893737793</v>
+        <v>0.1131601780653</v>
       </c>
     </row>
     <row r="119" spans="1:11">
       <c r="A119">
-        <v>0.2313316464424133</v>
+        <v>0.04170900955796242</v>
       </c>
       <c r="B119">
-        <v>0.2312931269407272</v>
+        <v>0.04170137271285057</v>
       </c>
       <c r="C119">
-        <v>0.2854329943656921</v>
+        <v>0.03040867112576962</v>
       </c>
       <c r="D119">
-        <v>0.1786345839500427</v>
+        <v>0</v>
       </c>
       <c r="E119">
-        <v>0.1392340809106827</v>
+        <v>0.003397863125428557</v>
       </c>
       <c r="F119">
-        <v>0.03116073273122311</v>
+        <v>0.02578882314264774</v>
       </c>
       <c r="G119">
-        <v>0.1836734712123871</v>
+        <v>0.3979591727256775</v>
       </c>
       <c r="H119">
-        <v>0.03913019225001335</v>
+        <v>0.04306184127926826</v>
       </c>
       <c r="I119">
-        <v>0.03341998532414436</v>
+        <v>0.04365536943078041</v>
       </c>
       <c r="J119">
-        <v>0.07049314677715302</v>
+        <v>0.02599524706602097</v>
       </c>
       <c r="K119">
-        <v>0.07238136976957321</v>
+        <v>0.005216471385210752</v>
       </c>
     </row>
     <row r="120" spans="1:11">
       <c r="A120">
-        <v>0.7244436740875244</v>
+        <v>0.05964541807770729</v>
       </c>
       <c r="B120">
-        <v>0.7244302034378052</v>
+        <v>0.05967162176966667</v>
       </c>
       <c r="C120">
-        <v>0.6509077548980713</v>
+        <v>0.07666606456041336</v>
       </c>
       <c r="D120">
-        <v>0.0487808883190155</v>
+        <v>0.02556325308978558</v>
       </c>
       <c r="E120">
-        <v>0.03450678661465645</v>
+        <v>0.01018298789858818</v>
       </c>
       <c r="F120">
-        <v>0.04633117839694023</v>
+        <v>0.3776825070381165</v>
       </c>
       <c r="G120">
-        <v>0.5612244606018066</v>
+        <v>0.4489795863628387</v>
       </c>
       <c r="H120">
-        <v>0.2248805314302444</v>
+        <v>0.04269952327013016</v>
       </c>
       <c r="I120">
-        <v>0.2328717410564423</v>
+        <v>0.0433957614004612</v>
       </c>
       <c r="J120">
-        <v>0.1403956711292267</v>
+        <v>0.03730787336826324</v>
       </c>
       <c r="K120">
-        <v>0.5403000712394714</v>
+        <v>0.008253634907305241</v>
       </c>
     </row>
     <row r="121" spans="1:11">
       <c r="A121">
-        <v>0.04216044768691063</v>
+        <v>0.7993080615997314</v>
       </c>
       <c r="B121">
-        <v>0.0422474630177021</v>
+        <v>0.7990025281906128</v>
       </c>
       <c r="C121">
-        <v>0.04913731291890144</v>
+        <v>0.8450098037719727</v>
       </c>
       <c r="D121">
-        <v>0.06681320816278458</v>
+        <v>0.6355990171432495</v>
       </c>
       <c r="E121">
-        <v>0.0709056630730629</v>
+        <v>0.7280485033988953</v>
       </c>
       <c r="F121">
-        <v>0.04297248646616936</v>
+        <v>0.01165026240050793</v>
       </c>
       <c r="G121">
-        <v>0.05102040991187096</v>
+        <v>0.5714285969734192</v>
       </c>
       <c r="H121">
-        <v>0.01212637685239315</v>
+        <v>0.9633013606071472</v>
       </c>
       <c r="I121">
-        <v>0.007312265690416098</v>
+        <v>0.9654991030693054</v>
       </c>
       <c r="J121">
-        <v>0.02698479220271111</v>
+        <v>0.5407857894897461</v>
       </c>
       <c r="K121">
-        <v>0.005369355902075768</v>
+        <v>0.6900174021720886</v>
       </c>
     </row>
     <row r="122" spans="1:11">
       <c r="A122">
-        <v>0.4137212634086609</v>
+        <v>0.5118842720985413</v>
       </c>
       <c r="B122">
-        <v>0.4135721027851105</v>
+        <v>0.5112909078598022</v>
       </c>
       <c r="C122">
-        <v>0.5902959108352661</v>
+        <v>0.6015521883964539</v>
       </c>
       <c r="D122">
-        <v>0.3211339712142944</v>
+        <v>0.2962700724601746</v>
       </c>
       <c r="E122">
-        <v>0.2521780729293823</v>
+        <v>0.2417058199644089</v>
       </c>
       <c r="F122">
-        <v>0.1075270771980286</v>
+        <v>0.04849730432033539</v>
       </c>
       <c r="G122">
-        <v>0.1632653027772903</v>
+        <v>0.2142857164144516</v>
       </c>
       <c r="H122">
-        <v>0.05248930677771568</v>
+        <v>0.1383391618728638</v>
       </c>
       <c r="I122">
-        <v>0.01855213008821011</v>
+        <v>0.04828808829188347</v>
       </c>
       <c r="J122">
-        <v>0.2333267778158188</v>
+        <v>0.4904734492301941</v>
       </c>
       <c r="K122">
-        <v>0.1982842981815338</v>
+        <v>0.2833099365234375</v>
       </c>
     </row>
     <row r="123" spans="1:11">
       <c r="A123">
-        <v>0.2620957493782043</v>
+        <v>0.7974947690963745</v>
       </c>
       <c r="B123">
-        <v>0.2623868882656097</v>
+        <v>0.7974839806556702</v>
       </c>
       <c r="C123">
-        <v>0.2303151041269302</v>
+        <v>0.7278170585632324</v>
       </c>
       <c r="D123">
-        <v>0.02456659451127052</v>
+        <v>0.03594236448407173</v>
       </c>
       <c r="E123">
-        <v>0.01341448444873095</v>
+        <v>0.03447720035910606</v>
       </c>
       <c r="F123">
-        <v>0.1304064691066742</v>
+        <v>0.05143288522958755</v>
       </c>
       <c r="G123">
-        <v>0.5612244606018066</v>
+        <v>0.6224489808082581</v>
       </c>
       <c r="H123">
-        <v>0.09794012457132339</v>
+        <v>0.2492785006761551</v>
       </c>
       <c r="I123">
-        <v>0.09816115349531174</v>
+        <v>0.2501574158668518</v>
       </c>
       <c r="J123">
-        <v>0.07288658618927002</v>
+        <v>0.1695081293582916</v>
       </c>
       <c r="K123">
-        <v>0.08563187718391418</v>
+        <v>0.6482498645782471</v>
       </c>
     </row>
     <row r="124" spans="1:11">
       <c r="A124">
-        <v>0.4137212634086609</v>
+        <v>0.5050114393234253</v>
       </c>
       <c r="B124">
-        <v>0.4135721027851105</v>
+        <v>0.5047759413719177</v>
       </c>
       <c r="C124">
-        <v>0.5902959108352661</v>
+        <v>0.6030685901641846</v>
       </c>
       <c r="D124">
-        <v>0.3211339712142944</v>
+        <v>0.2835314273834229</v>
       </c>
       <c r="E124">
-        <v>0.2521780729293823</v>
+        <v>0.2239193171262741</v>
       </c>
       <c r="F124">
-        <v>0.1075270771980286</v>
+        <v>0.06538299471139908</v>
       </c>
       <c r="G124">
         <v>0.1632653027772903</v>
       </c>
       <c r="H124">
-        <v>0.05248930677771568</v>
+        <v>0.09072314202785492</v>
       </c>
       <c r="I124">
-        <v>0.01855213008821011</v>
+        <v>0.03076431341469288</v>
       </c>
       <c r="J124">
-        <v>0.2333267778158188</v>
+        <v>0.3595961034297943</v>
       </c>
       <c r="K124">
-        <v>0.1982842981815338</v>
+        <v>0.2794380187988281</v>
       </c>
     </row>
     <row r="125" spans="1:11">
       <c r="A125">
-        <v>0.6293607354164124</v>
+        <v>0.554980456829071</v>
       </c>
       <c r="B125">
-        <v>0.6288362145423889</v>
+        <v>0.5548332929611206</v>
       </c>
       <c r="C125">
-        <v>0.5684996843338013</v>
+        <v>0.5077804327011108</v>
       </c>
       <c r="D125">
-        <v>0.05258038640022278</v>
+        <v>0.09999834001064301</v>
       </c>
       <c r="E125">
-        <v>0.05343004316091537</v>
+        <v>0.06958484649658203</v>
       </c>
       <c r="F125">
-        <v>0.0255274623632431</v>
+        <v>0.1346592903137207</v>
       </c>
       <c r="G125">
-        <v>0.5612244606018066</v>
+        <v>0.1530612260103226</v>
       </c>
       <c r="H125">
-        <v>0.2106959372758865</v>
+        <v>0.01449563447386026</v>
       </c>
       <c r="I125">
-        <v>0.2234516888856888</v>
+        <v>0.01186822261661291</v>
       </c>
       <c r="J125">
-        <v>0.1702264398336411</v>
+        <v>0.03988801687955856</v>
       </c>
       <c r="K125">
-        <v>0.4138656556606293</v>
+        <v>0.3298090100288391</v>
       </c>
     </row>
     <row r="126" spans="1:11">
       <c r="A126">
-        <v>0.166712611913681</v>
+        <v>0.3680500090122223</v>
       </c>
       <c r="B126">
-        <v>0.1666664481163025</v>
+        <v>0.3676040172576904</v>
       </c>
       <c r="C126">
-        <v>0.3067731857299805</v>
+        <v>0.447245866060257</v>
       </c>
       <c r="D126">
-        <v>0.2802132070064545</v>
+        <v>0.3166250884532928</v>
       </c>
       <c r="E126">
-        <v>0.182960256934166</v>
+        <v>0.2662487924098969</v>
       </c>
       <c r="F126">
-        <v>0.05869357660412788</v>
+        <v>0.04106517881155014</v>
       </c>
       <c r="G126">
-        <v>0.1020408198237419</v>
+        <v>0.1632653027772903</v>
       </c>
       <c r="H126">
-        <v>0.03552056849002838</v>
+        <v>0.05641663447022438</v>
       </c>
       <c r="I126">
-        <v>0.02675681188702583</v>
+        <v>0.02176915109157562</v>
       </c>
       <c r="J126">
-        <v>0.09884233027696609</v>
+        <v>0.2261813431978226</v>
       </c>
       <c r="K126">
-        <v>0.03838006779551506</v>
+        <v>0.1654299646615982</v>
       </c>
     </row>
     <row r="127" spans="1:11">
       <c r="A127">
-        <v>0.2322933673858643</v>
+        <v>0.2200986444950104</v>
       </c>
       <c r="B127">
-        <v>0.2322808653116226</v>
+        <v>0.2195826023817062</v>
       </c>
       <c r="C127">
-        <v>0.2444241642951965</v>
+        <v>0.4037743806838989</v>
       </c>
       <c r="D127">
-        <v>0.02256202325224876</v>
+        <v>0.3821947276592255</v>
       </c>
       <c r="E127">
-        <v>0.01844427920877934</v>
+        <v>0.1552524417638779</v>
       </c>
       <c r="F127">
-        <v>0.6787086725234985</v>
+        <v>0.08455203473567963</v>
       </c>
       <c r="G127">
-        <v>0.438775509595871</v>
+        <v>0.1734693944454193</v>
       </c>
       <c r="H127">
-        <v>0.03156933188438416</v>
+        <v>0.0671161487698555</v>
       </c>
       <c r="I127">
-        <v>0.03127016872167587</v>
+        <v>0.02967500872910023</v>
       </c>
       <c r="J127">
-        <v>0.02388689480721951</v>
+        <v>0.2246461361646652</v>
       </c>
       <c r="K127">
-        <v>0.06828164309263229</v>
+        <v>0.06357786059379578</v>
       </c>
     </row>
     <row r="128" spans="1:11">
       <c r="A128">
-        <v>0.6343122720718384</v>
+        <v>0.2160522490739822</v>
       </c>
       <c r="B128">
-        <v>0.6355525851249695</v>
+        <v>0.2161594182252884</v>
       </c>
       <c r="C128">
-        <v>0.744229257106781</v>
+        <v>0.2178332358598709</v>
       </c>
       <c r="D128">
-        <v>0.6856167912483215</v>
+        <v>0.07832487672567368</v>
       </c>
       <c r="E128">
-        <v>0.8081615567207336</v>
+        <v>0.06717263907194138</v>
       </c>
       <c r="F128">
-        <v>0.002953925402835011</v>
+        <v>0.02697589620947838</v>
       </c>
       <c r="G128">
-        <v>0.2551020383834839</v>
+        <v>0.2244897931814194</v>
       </c>
       <c r="H128">
-        <v>0.3043049871921539</v>
+        <v>0.03606449812650681</v>
       </c>
       <c r="I128">
-        <v>0.2874389588832855</v>
+        <v>0.03648236021399498</v>
       </c>
       <c r="J128">
-        <v>0.6263667941093445</v>
+        <v>0.04748618975281715</v>
       </c>
       <c r="K128">
-        <v>0.4500468969345093</v>
+        <v>0.06122458726167679</v>
       </c>
     </row>
     <row r="129" spans="1:11">
       <c r="A129">
-        <v>0.3374450206756592</v>
+        <v>0.7580429911613464</v>
       </c>
       <c r="B129">
-        <v>0.3374496400356293</v>
+        <v>0.7577720284461975</v>
       </c>
       <c r="C129">
-        <v>0.6832351088523865</v>
+        <v>0.7485979795455933</v>
       </c>
       <c r="D129">
-        <v>0.8399906158447266</v>
+        <v>0.2417602688074112</v>
       </c>
       <c r="E129">
-        <v>0.7987667918205261</v>
+        <v>0.1863448917865753</v>
       </c>
       <c r="F129">
-        <v>0.03442693874239922</v>
+        <v>0.03546871617436409</v>
       </c>
       <c r="G129">
-        <v>0.08163265138864517</v>
+        <v>0.2142857164144516</v>
       </c>
       <c r="H129">
-        <v>0.06122159585356712</v>
+        <v>0.0536365732550621</v>
       </c>
       <c r="I129">
-        <v>0.02787233330309391</v>
+        <v>0.03196435049176216</v>
       </c>
       <c r="J129">
-        <v>0.2573001682758331</v>
+        <v>0.1659770011901855</v>
       </c>
       <c r="K129">
-        <v>0.1442585736513138</v>
+        <v>0.5989416241645813</v>
       </c>
     </row>
     <row r="130" spans="1:11">
       <c r="A130">
-        <v>0.1602841317653656</v>
+        <v>0.5064073801040649</v>
       </c>
       <c r="B130">
-        <v>0.1603269577026367</v>
+        <v>0.5059702396392822</v>
       </c>
       <c r="C130">
-        <v>0.2093125730752945</v>
+        <v>0.4751137495040894</v>
       </c>
       <c r="D130">
-        <v>0.1926971673965454</v>
+        <v>0.115697406232357</v>
       </c>
       <c r="E130">
-        <v>0.1950469017028809</v>
+        <v>0.1292033791542053</v>
       </c>
       <c r="F130">
-        <v>0.02103270590305328</v>
+        <v>0.02197848819196224</v>
       </c>
       <c r="G130">
-        <v>0.1734693944454193</v>
+        <v>0.4183673560619354</v>
       </c>
       <c r="H130">
-        <v>0.04350210726261139</v>
+        <v>0.1880570203065872</v>
       </c>
       <c r="I130">
-        <v>0.03726855292916298</v>
+        <v>0.195424422621727</v>
       </c>
       <c r="J130">
-        <v>0.06771969050168991</v>
+        <v>0.1334977596998215</v>
       </c>
       <c r="K130">
-        <v>0.03797946125268936</v>
+        <v>0.2774228453636169</v>
       </c>
     </row>
     <row r="131" spans="1:11">
       <c r="A131">
-        <v>0.1877275854349136</v>
+        <v>0.1696264445781708</v>
       </c>
       <c r="B131">
-        <v>0.1876883208751678</v>
+        <v>0.169815331697464</v>
       </c>
       <c r="C131">
-        <v>0.2949751317501068</v>
+        <v>0.2206040918827057</v>
       </c>
       <c r="D131">
-        <v>0.236639067530632</v>
+        <v>0.2145404070615768</v>
       </c>
       <c r="E131">
-        <v>0.1232787445187569</v>
+        <v>0.1266029328107834</v>
       </c>
       <c r="F131">
-        <v>0.2299485355615616</v>
+        <v>0.09564924985170364</v>
       </c>
       <c r="G131">
-        <v>0.1836734712123871</v>
+        <v>0.2551020383834839</v>
       </c>
       <c r="H131">
-        <v>0.1183173581957817</v>
+        <v>0.1673369407653809</v>
       </c>
       <c r="I131">
-        <v>0.05042229220271111</v>
+        <v>0.1423481404781342</v>
       </c>
       <c r="J131">
-        <v>0.3915244936943054</v>
+        <v>0.2327535599470139</v>
       </c>
       <c r="K131">
-        <v>0.04950141906738281</v>
+        <v>0.04482519999146461</v>
       </c>
     </row>
     <row r="132" spans="1:11">
       <c r="A132">
-        <v>0.1005829498171806</v>
+        <v>0.04302994906902313</v>
       </c>
       <c r="B132">
-        <v>0.1004635095596313</v>
+        <v>0.04326271265745163</v>
       </c>
       <c r="C132">
-        <v>0.1415150314569473</v>
+        <v>0.03828154876828194</v>
       </c>
       <c r="D132">
-        <v>0.1183012723922729</v>
+        <v>0.06010087952017784</v>
       </c>
       <c r="E132">
-        <v>0.09486821293830872</v>
+        <v>0.0271563995629549</v>
       </c>
       <c r="F132">
-        <v>0.04052026942372322</v>
+        <v>0.2451642155647278</v>
       </c>
       <c r="G132">
-        <v>0.2244897931814194</v>
+        <v>0.6734693646430969</v>
       </c>
       <c r="H132">
-        <v>0.04443201050162315</v>
+        <v>0.05892718583345413</v>
       </c>
       <c r="I132">
-        <v>0.01350842230021954</v>
+        <v>0.05760447680950165</v>
       </c>
       <c r="J132">
-        <v>0.1711607724428177</v>
+        <v>0.09207784384489059</v>
       </c>
       <c r="K132">
-        <v>0.01902171783149242</v>
+        <v>0.005503227934241295</v>
       </c>
     </row>
     <row r="133" spans="1:11">
       <c r="A133">
-        <v>0.7985613942146301</v>
+        <v>0.3708164691925049</v>
       </c>
       <c r="B133">
-        <v>0.7990687489509583</v>
+        <v>0.3710432052612305</v>
       </c>
       <c r="C133">
-        <v>0.7333075404167175</v>
+        <v>0.3472878634929657</v>
       </c>
       <c r="D133">
-        <v>0.1173548549413681</v>
+        <v>0.05258354172110558</v>
       </c>
       <c r="E133">
-        <v>0.1481752395629883</v>
+        <v>0.03542338311672211</v>
       </c>
       <c r="F133">
-        <v>0.005743794143199921</v>
+        <v>0.3812735676765442</v>
       </c>
       <c r="G133">
-        <v>0.6020408272743225</v>
+        <v>0.4693877696990967</v>
       </c>
       <c r="H133">
-        <v>0.2294658124446869</v>
+        <v>0.1491032242774963</v>
       </c>
       <c r="I133">
-        <v>0.2320535629987717</v>
+        <v>0.1430056989192963</v>
       </c>
       <c r="J133">
-        <v>0.1574250608682632</v>
+        <v>0.08315899968147278</v>
       </c>
       <c r="K133">
-        <v>0.6530696749687195</v>
+        <v>0.1557241082191467</v>
       </c>
     </row>
     <row r="134" spans="1:11">
       <c r="A134">
-        <v>0.1424884349107742</v>
+        <v>0.1894110143184662</v>
       </c>
       <c r="B134">
-        <v>0.1440053880214691</v>
+        <v>0.1895237118005753</v>
       </c>
       <c r="C134">
-        <v>0.219785064458847</v>
+        <v>0.3190178275108337</v>
       </c>
       <c r="D134">
-        <v>0.4433603584766388</v>
+        <v>0.3213061392307281</v>
       </c>
       <c r="E134">
-        <v>0.1661642789840698</v>
+        <v>0.3133142590522766</v>
       </c>
       <c r="F134">
-        <v>0.05894718319177628</v>
+        <v>0.0338796004652977</v>
       </c>
       <c r="G134">
-        <v>0.2346938848495483</v>
+        <v>0.1122448965907097</v>
       </c>
       <c r="H134">
-        <v>0.2076872438192368</v>
+        <v>0.03121372871100903</v>
       </c>
       <c r="I134">
-        <v>0.1735452115535736</v>
+        <v>0.02537081576883793</v>
       </c>
       <c r="J134">
-        <v>0.3891560137271881</v>
+        <v>0.07220743596553802</v>
       </c>
       <c r="K134">
-        <v>0.03085592947900295</v>
+        <v>0.05041024833917618</v>
       </c>
     </row>
     <row r="135" spans="1:11">
       <c r="A135">
-        <v>0.5064073801040649</v>
+        <v>0.6545760631561279</v>
       </c>
       <c r="B135">
-        <v>0.5059702396392822</v>
+        <v>0.6531351208686829</v>
       </c>
       <c r="C135">
-        <v>0.4751137495040894</v>
+        <v>0.8270583748817444</v>
       </c>
       <c r="D135">
-        <v>0.115697406232357</v>
+        <v>0.503765344619751</v>
       </c>
       <c r="E135">
-        <v>0.1292033791542053</v>
+        <v>0.2565883100032806</v>
       </c>
       <c r="F135">
-        <v>0.02197848819196224</v>
+        <v>0.08565281331539154</v>
       </c>
       <c r="G135">
-        <v>0.4183673560619354</v>
+        <v>0.3163265287876129</v>
       </c>
       <c r="H135">
-        <v>0.1880570203065872</v>
+        <v>0.2226081937551498</v>
       </c>
       <c r="I135">
-        <v>0.195424422621727</v>
+        <v>0.06983006745576859</v>
       </c>
       <c r="J135">
-        <v>0.1334977596998215</v>
+        <v>0.8557124137878418</v>
       </c>
       <c r="K135">
-        <v>0.2774228453636169</v>
+        <v>0.489626556634903</v>
       </c>
     </row>
     <row r="136" spans="1:11">
       <c r="A136">
-        <v>0.3980836272239685</v>
+        <v>0.04301416501402855</v>
       </c>
       <c r="B136">
-        <v>0.3980476856231689</v>
+        <v>0.04289421066641808</v>
       </c>
       <c r="C136">
-        <v>0.5158510208129883</v>
+        <v>0.03040867112576962</v>
       </c>
       <c r="D136">
-        <v>0.3493326902389526</v>
+        <v>0.000803257105872035</v>
       </c>
       <c r="E136">
-        <v>0.2773210108280182</v>
+        <v>2.650439228091273e-06</v>
       </c>
       <c r="F136">
-        <v>0.03933199867606163</v>
+        <v>0.02997367829084396</v>
       </c>
       <c r="G136">
-        <v>0.3775510191917419</v>
+        <v>0.4285714328289032</v>
       </c>
       <c r="H136">
-        <v>0.2705148160457611</v>
+        <v>0.04383092373609543</v>
       </c>
       <c r="I136">
-        <v>0.1053699031472206</v>
+        <v>0.04477643594145775</v>
       </c>
       <c r="J136">
-        <v>0.7485461235046387</v>
+        <v>0.03483321517705917</v>
       </c>
       <c r="K136">
-        <v>0.1871366053819656</v>
+        <v>0.005419119726866484</v>
       </c>
     </row>
     <row r="137" spans="1:11">
       <c r="A137">
-        <v>0.2772712111473083</v>
+        <v>0.5568727850914001</v>
       </c>
       <c r="B137">
-        <v>0.2771627902984619</v>
+        <v>0.5553030371665955</v>
       </c>
       <c r="C137">
-        <v>0.2464802414178848</v>
+        <v>0.9502043724060059</v>
       </c>
       <c r="D137">
-        <v>0.00238414853811264</v>
+        <v>0.7636146545410156</v>
       </c>
       <c r="E137">
-        <v>0.003666162025183439</v>
+        <v>0.3864223062992096</v>
       </c>
       <c r="F137">
-        <v>0.2449538260698318</v>
+        <v>0.06991443037986755</v>
       </c>
       <c r="G137">
-        <v>0.1632653027772903</v>
+        <v>0.2346938848495483</v>
       </c>
       <c r="H137">
-        <v>0.02461161464452744</v>
+        <v>0.2112043052911758</v>
       </c>
       <c r="I137">
-        <v>0.02659433893859386</v>
+        <v>0.0811101496219635</v>
       </c>
       <c r="J137">
-        <v>0.0135864969342947</v>
+        <v>0.747935950756073</v>
       </c>
       <c r="K137">
-        <v>0.09376069158315659</v>
+        <v>0.3710560202598572</v>
       </c>
     </row>
     <row r="138" spans="1:11">
       <c r="A138">
-        <v>0.01004607975482941</v>
+        <v>0.2955805063247681</v>
       </c>
       <c r="B138">
-        <v>0.009920829907059669</v>
+        <v>0.2955935001373291</v>
       </c>
       <c r="C138">
-        <v>0.06271912157535553</v>
+        <v>0.3579575717449188</v>
       </c>
       <c r="D138">
-        <v>0.1376191675662994</v>
+        <v>0.1290455311536789</v>
       </c>
       <c r="E138">
-        <v>0.149408757686615</v>
+        <v>0.08342450112104416</v>
       </c>
       <c r="F138">
-        <v>0.01912751607596874</v>
+        <v>0.1808808892965317</v>
       </c>
       <c r="G138">
-        <v>0.1122448965907097</v>
+        <v>0.1734693944454193</v>
       </c>
       <c r="H138">
-        <v>0.02308319322764874</v>
+        <v>0.04394552111625671</v>
       </c>
       <c r="I138">
-        <v>0.01509497594088316</v>
+        <v>0.0330640897154808</v>
       </c>
       <c r="J138">
-        <v>0.06447651982307434</v>
+        <v>0.1197739318013191</v>
       </c>
       <c r="K138">
-        <v>0.001254407688975334</v>
+        <v>0.1044954732060432</v>
       </c>
     </row>
     <row r="139" spans="1:11">
       <c r="A139">
-        <v>0.7706466317176819</v>
+        <v>0.3846131265163422</v>
       </c>
       <c r="B139">
-        <v>0.7703661322593689</v>
+        <v>0.3844519257545471</v>
       </c>
       <c r="C139">
-        <v>0.7666556835174561</v>
+        <v>0.5392043590545654</v>
       </c>
       <c r="D139">
-        <v>0.2226224839687347</v>
+        <v>0.3734634816646576</v>
       </c>
       <c r="E139">
-        <v>0.1208247467875481</v>
+        <v>0.3615991771221161</v>
       </c>
       <c r="F139">
-        <v>0.08951687812805176</v>
+        <v>0.03441670164465904</v>
       </c>
       <c r="G139">
-        <v>0.3265306055545807</v>
+        <v>0.0714285746216774</v>
       </c>
       <c r="H139">
-        <v>0.1028806492686272</v>
+        <v>0.05602766200900078</v>
       </c>
       <c r="I139">
-        <v>0.07580652087926865</v>
+        <v>0.02177784033119678</v>
       </c>
       <c r="J139">
-        <v>0.2446397244930267</v>
+        <v>0.2398574203252792</v>
       </c>
       <c r="K139">
-        <v>0.6127419471740723</v>
+        <v>0.1750906109809875</v>
       </c>
     </row>
     <row r="140" spans="1:11">
       <c r="A140">
-        <v>0.2718475162982941</v>
+        <v>0.16610087454319</v>
       </c>
       <c r="B140">
-        <v>0.2718706130981445</v>
+        <v>0.1660010367631912</v>
       </c>
       <c r="C140">
-        <v>0.3018375933170319</v>
+        <v>0.1977350115776062</v>
       </c>
       <c r="D140">
-        <v>0.1364195644855499</v>
+        <v>0.0871141105890274</v>
       </c>
       <c r="E140">
-        <v>0.1270415484905243</v>
+        <v>0.01689436472952366</v>
       </c>
       <c r="F140">
-        <v>0.03165987133979797</v>
+        <v>0.1676542013883591</v>
       </c>
       <c r="G140">
-        <v>0.02040816284716129</v>
+        <v>0.1020408198237419</v>
       </c>
       <c r="H140">
-        <v>0.007194842211902142</v>
+        <v>0.05506835132837296</v>
       </c>
       <c r="I140">
-        <v>0.002348048379644752</v>
+        <v>0.03888082504272461</v>
       </c>
       <c r="J140">
-        <v>0.04696626961231232</v>
+        <v>0.08670005202293396</v>
       </c>
       <c r="K140">
-        <v>0.09137634932994843</v>
+        <v>0.03999016433954239</v>
       </c>
     </row>
     <row r="141" spans="1:11">
       <c r="A141">
-        <v>0.4434278607368469</v>
+        <v>0.04216044768691063</v>
       </c>
       <c r="B141">
-        <v>0.4434502124786377</v>
+        <v>0.0422474630177021</v>
       </c>
       <c r="C141">
-        <v>0.401686429977417</v>
+        <v>0.04913731291890144</v>
       </c>
       <c r="D141">
-        <v>0.04263534024357796</v>
+        <v>0.06681320816278458</v>
       </c>
       <c r="E141">
-        <v>0.04189439117908478</v>
+        <v>0.0709056630730629</v>
       </c>
       <c r="F141">
-        <v>0.03429263085126877</v>
+        <v>0.04297248646616936</v>
       </c>
       <c r="G141">
-        <v>0.3469387888908386</v>
+        <v>0.05102040991187096</v>
       </c>
       <c r="H141">
-        <v>0.08746965974569321</v>
+        <v>0.01212637685239315</v>
       </c>
       <c r="I141">
-        <v>0.08696383237838745</v>
+        <v>0.007312265690416098</v>
       </c>
       <c r="J141">
-        <v>0.07203858345746994</v>
+        <v>0.02698479220271111</v>
       </c>
       <c r="K141">
-        <v>0.2174297869205475</v>
+        <v>0.005369355902075768</v>
       </c>
     </row>
     <row r="142" spans="1:11">
       <c r="A142">
-        <v>0.06404963135719299</v>
+        <v>0.6401448249816895</v>
       </c>
       <c r="B142">
-        <v>0.06414004415273666</v>
+        <v>0.6397091746330261</v>
       </c>
       <c r="C142">
-        <v>0.09859243035316467</v>
+        <v>0.5959688425064087</v>
       </c>
       <c r="D142">
-        <v>0.1002244651317596</v>
+        <v>0.05146590247750282</v>
       </c>
       <c r="E142">
-        <v>0.09328571707010269</v>
+        <v>0.03450678661465645</v>
       </c>
       <c r="F142">
-        <v>0.04643456637859344</v>
+        <v>0.1004016697406769</v>
       </c>
       <c r="G142">
-        <v>0.04081632569432259</v>
+        <v>0.5510203838348389</v>
       </c>
       <c r="H142">
-        <v>0.003168581053614616</v>
+        <v>0.2229409962892532</v>
       </c>
       <c r="I142">
-        <v>0.002477607224136591</v>
+        <v>0.2273828834295273</v>
       </c>
       <c r="J142">
-        <v>0.01682097464799881</v>
+        <v>0.1499159187078476</v>
       </c>
       <c r="K142">
-        <v>0.009553209878504276</v>
+        <v>0.42429119348526</v>
       </c>
     </row>
     <row r="143" spans="1:11">
       <c r="A143">
-        <v>0.7706466317176819</v>
+        <v>0.7244436740875244</v>
       </c>
       <c r="B143">
-        <v>0.7703661322593689</v>
+        <v>0.7244302034378052</v>
       </c>
       <c r="C143">
-        <v>0.7666556835174561</v>
+        <v>0.6509077548980713</v>
       </c>
       <c r="D143">
-        <v>0.2226224839687347</v>
+        <v>0.0487808883190155</v>
       </c>
       <c r="E143">
-        <v>0.1208247467875481</v>
+        <v>0.03450678661465645</v>
       </c>
       <c r="F143">
-        <v>0.08951687812805176</v>
+        <v>0.04633117839694023</v>
       </c>
       <c r="G143">
-        <v>0.3265306055545807</v>
+        <v>0.5612244606018066</v>
       </c>
       <c r="H143">
-        <v>0.1028806492686272</v>
+        <v>0.2248805314302444</v>
       </c>
       <c r="I143">
-        <v>0.07580652087926865</v>
+        <v>0.2328717410564423</v>
       </c>
       <c r="J143">
-        <v>0.2446397244930267</v>
+        <v>0.1403956711292267</v>
       </c>
       <c r="K143">
-        <v>0.6127419471740723</v>
+        <v>0.5403000712394714</v>
       </c>
     </row>
     <row r="144" spans="1:11">
       <c r="A144">
-        <v>0.5349778532981873</v>
+        <v>0.1019251123070717</v>
       </c>
       <c r="B144">
-        <v>0.5346826910972595</v>
+        <v>0.1019555181264877</v>
       </c>
       <c r="C144">
-        <v>0.6159541606903076</v>
+        <v>0.08377179503440857</v>
       </c>
       <c r="D144">
-        <v>0.2637480199337006</v>
+        <v>0.006765787024050951</v>
       </c>
       <c r="E144">
-        <v>0.2257062792778015</v>
+        <v>0.007621403783559799</v>
       </c>
       <c r="F144">
-        <v>0.06074909120798111</v>
+        <v>0.05156081914901733</v>
       </c>
       <c r="G144">
-        <v>0.3163265287876129</v>
+        <v>0.0714285746216774</v>
       </c>
       <c r="H144">
-        <v>0.224361315369606</v>
+        <v>0.003343856893479824</v>
       </c>
       <c r="I144">
-        <v>0.09444070607423782</v>
+        <v>0.002853898564353585</v>
       </c>
       <c r="J144">
-        <v>0.6294746398925781</v>
+        <v>0.004359900020062923</v>
       </c>
       <c r="K144">
-        <v>0.3123790323734283</v>
+        <v>0.01843329705297947</v>
       </c>
     </row>
     <row r="145" spans="1:11">
       <c r="A145">
-        <v>1</v>
+        <v>0.16637022793293</v>
       </c>
       <c r="B145">
-        <v>1</v>
+        <v>0.166118711233139</v>
       </c>
       <c r="C145">
-        <v>0.9265779852867126</v>
+        <v>0.2734458148479462</v>
       </c>
       <c r="D145">
-        <v>0.3005592226982117</v>
+        <v>0.2145247459411621</v>
       </c>
       <c r="E145">
-        <v>0.05284171923995018</v>
+        <v>0.190911591053009</v>
       </c>
       <c r="F145">
-        <v>0.456854373216629</v>
+        <v>0.0513303205370903</v>
       </c>
       <c r="G145">
-        <v>0.6530612111091614</v>
+        <v>0.1122448965907097</v>
       </c>
       <c r="H145">
-        <v>0.9075043797492981</v>
+        <v>0.05476464703679085</v>
       </c>
       <c r="I145">
-        <v>0.9017121195793152</v>
+        <v>0.04764387756586075</v>
       </c>
       <c r="J145">
-        <v>0.6133673191070557</v>
+        <v>0.05977323651313782</v>
       </c>
       <c r="K145">
-        <v>1</v>
+        <v>0.04214956238865852</v>
       </c>
     </row>
   </sheetData>
